--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\PROJETOS\APP\Códigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016DC6C1-F926-478B-949C-FFF47D722707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1723DA-FD1D-4C32-AE77-15B46C2461A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="184">
   <si>
     <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
   </si>
@@ -518,12 +518,6 @@
     <t>S010038</t>
   </si>
   <si>
-    <t>PASTA AZ LOMBO LARGO TAM. OFICIO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020017</t>
-  </si>
-  <si>
     <t>QUADRO DE AVISO - UNICA</t>
   </si>
   <si>
@@ -564,6 +558,39 @@
   </si>
   <si>
     <t>S010064</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
+  </si>
+  <si>
+    <t>S050008</t>
+  </si>
+  <si>
+    <t>UM.</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>PC C/10</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PC C/8</t>
+  </si>
+  <si>
+    <t>PC C/100</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>PAR</t>
   </si>
 </sst>
 </file>
@@ -646,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -663,21 +690,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1009,1088 +1030,1369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>809</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>1045</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>904</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>903</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D29" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D32" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="2">
+        <v>176</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C34" s="5">
+        <v>176</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D35" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D36" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="2">
+      <c r="D38" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="2">
+      <c r="D39" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="2">
+      <c r="D40" s="2">
         <v>899</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="2">
+      <c r="D41" s="2">
         <v>896</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="2">
+      <c r="D42" s="2">
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="2">
+      <c r="D43" s="2">
         <v>898</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="2">
+      <c r="D45" s="2">
         <v>471</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="2">
+      <c r="D46" s="2">
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="2">
+      <c r="D47" s="2">
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="2">
+      <c r="D50" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="2">
+      <c r="D51" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="2">
+      <c r="D52" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="2">
+      <c r="D53" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="2">
+      <c r="D54" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="2">
+      <c r="D55" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="2">
+      <c r="D56" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="2">
+      <c r="D57" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="2">
+      <c r="D58" s="2">
         <v>745</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="2">
+      <c r="D59" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="2">
+      <c r="D60" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="2">
+      <c r="D61" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="2">
+      <c r="D62" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="2">
+      <c r="D63" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="2">
+      <c r="D65" s="2">
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="2">
+      <c r="D67" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="2">
+      <c r="D68" s="2">
         <v>819</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="2">
+      <c r="D69" s="2">
         <v>750</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="2">
+      <c r="D70" s="2">
         <v>553</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="2">
+      <c r="D71" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="2">
+      <c r="D72" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="2">
+      <c r="D73" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="2">
+      <c r="D74" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="2">
+      <c r="D75" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="2">
+      <c r="D76" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="2">
+      <c r="D77" s="2">
         <v>994</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="2">
+      <c r="D78" s="2">
         <v>695</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="2">
+      <c r="D79" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="2">
+      <c r="D81" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C82" s="2">
+      <c r="D82" s="2">
         <v>918</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="2">
+      <c r="D83" s="2">
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="2">
+      <c r="D84" s="2">
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="2">
+      <c r="D85" s="2">
         <v>799</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C86" s="2">
+      <c r="D86" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="2">
+      <c r="D87" s="2">
         <v>569</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="2">
+      <c r="D88" s="2">
         <v>762</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C89" s="2">
+      <c r="D89" s="2">
         <v>211</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C90" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C92" s="2">
+      <c r="D92" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C93" s="2">
+      <c r="D93" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C94" s="2">
+      <c r="D94" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C86" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C91">
+  <autoFilter ref="A1:D95" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
       <sortCondition ref="A1:A86"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>$D1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C33 A35:C95">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D95">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C34">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="C3 C7:C32 C37:C89 C93:C95 C91" numberStoredAsText="1"/>
+    <ignoredError sqref="D3 D7:D32 D50:D74 D93:D95 D91 D37:D48 D75:D89" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1723DA-FD1D-4C32-AE77-15B46C2461A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5B3B0A-E6B1-4FF0-9F4D-4C3F68763600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -245,9 +245,6 @@
     <t>S040043</t>
   </si>
   <si>
-    <t>PAPEL A4 - AMARELO</t>
-  </si>
-  <si>
     <t>S020012</t>
   </si>
   <si>
@@ -591,6 +588,9 @@
   </si>
   <si>
     <t>PAR</t>
+  </si>
+  <si>
+    <t>PAPEL A4 - AMARELO 500FLS - BRANCO 500FLS</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,27 +1046,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D2" s="2">
         <v>54</v>
@@ -1074,27 +1074,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -1130,27 +1130,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D8" s="2">
         <v>53</v>
@@ -1158,30 +1158,30 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1189,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -1203,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -1214,13 +1214,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D13" s="2">
         <v>104</v>
@@ -1231,7 +1231,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1245,7 +1245,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -1259,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
@@ -1270,13 +1270,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="D17" s="2">
         <v>58</v>
@@ -1287,7 +1287,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -1301,7 +1301,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>16</v>
@@ -1312,16 +1312,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1329,7 +1329,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -1343,7 +1343,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -1371,7 +1371,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>21</v>
@@ -1385,7 +1385,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>23</v>
@@ -1399,7 +1399,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
@@ -1410,13 +1410,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D27" s="2">
         <v>904</v>
@@ -1424,13 +1424,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="2">
         <v>903</v>
@@ -1441,7 +1441,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>27</v>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>27</v>
@@ -1469,7 +1469,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
@@ -1494,13 +1494,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -1508,13 +1508,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -1525,7 +1525,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>33</v>
@@ -1539,7 +1539,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>35</v>
@@ -1550,16 +1550,16 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>37</v>
@@ -1581,7 +1581,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>39</v>
@@ -1595,7 +1595,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>41</v>
@@ -1609,7 +1609,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>41</v>
@@ -1623,7 +1623,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>41</v>
@@ -1637,7 +1637,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>41</v>
@@ -1648,27 +1648,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="D45" s="2">
         <v>471</v>
@@ -1679,7 +1679,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>46</v>
@@ -1693,7 +1693,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>46</v>
@@ -1704,27 +1704,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
@@ -1735,7 +1735,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>49</v>
@@ -1749,7 +1749,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>51</v>
@@ -1763,7 +1763,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>53</v>
@@ -1777,7 +1777,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>55</v>
@@ -1788,13 +1788,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -1802,13 +1802,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -1819,7 +1819,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>57</v>
@@ -1833,7 +1833,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>59</v>
@@ -1847,7 +1847,7 @@
         <v>60</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>61</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D59" s="2">
         <v>33</v>
@@ -1872,13 +1872,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D60" s="2">
         <v>32</v>
@@ -1886,13 +1886,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D61" s="2">
         <v>31</v>
@@ -1903,7 +1903,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>63</v>
@@ -1917,7 +1917,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>65</v>
@@ -1928,16 +1928,16 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1945,7 +1945,7 @@
         <v>66</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>67</v>
@@ -1956,41 +1956,41 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D67" s="2">
-        <v>7</v>
+        <v>821</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68" s="2">
         <v>819</v>
@@ -1998,13 +1998,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D69" s="2">
         <v>750</v>
@@ -2012,13 +2012,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D70" s="2">
         <v>553</v>
@@ -2026,13 +2026,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D71" s="2">
         <v>72</v>
@@ -2040,13 +2040,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D72" s="2">
         <v>86</v>
@@ -2054,13 +2054,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D73" s="2">
         <v>87</v>
@@ -2068,13 +2068,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D74" s="2">
         <v>88</v>
@@ -2082,13 +2082,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D75" s="2">
         <v>55</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D76" s="2">
         <v>54</v>
@@ -2110,13 +2110,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D77" s="2">
         <v>994</v>
@@ -2124,13 +2124,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D78" s="2">
         <v>695</v>
@@ -2138,13 +2138,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D79" s="2">
         <v>1</v>
@@ -2152,27 +2152,27 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="D80" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D81" s="2">
         <v>107</v>
@@ -2180,13 +2180,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="D82" s="2">
         <v>918</v>
@@ -2194,13 +2194,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D83" s="2">
         <v>170</v>
@@ -2208,13 +2208,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="2">
         <v>163</v>
@@ -2222,13 +2222,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="2">
         <v>799</v>
@@ -2236,13 +2236,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D86" s="2">
         <v>160</v>
@@ -2250,13 +2250,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D87" s="2">
         <v>569</v>
@@ -2264,13 +2264,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D88" s="2">
         <v>762</v>
@@ -2278,13 +2278,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D89" s="2">
         <v>211</v>
@@ -2292,13 +2292,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D90" s="2">
         <v>1</v>
@@ -2306,27 +2306,27 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="D91" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="D92" s="2">
         <v>2</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="D93" s="2">
         <v>1</v>
@@ -2348,13 +2348,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D94" s="2">
         <v>1</v>
@@ -2362,16 +2362,16 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="D95" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2392,7 +2392,7 @@
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D3 D7:D32 D50:D74 D93:D95 D91 D37:D48 D75:D89" numberStoredAsText="1"/>
+    <ignoredError sqref="D3 D7:D32 D50:D66 D93:D95 D91 D37:D48 D75:D89 D68:D74" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5B3B0A-E6B1-4FF0-9F4D-4C3F68763600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CA1B47-1B15-4BDD-B8D9-C89104B20535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -590,7 +590,7 @@
     <t>PAR</t>
   </si>
   <si>
-    <t>PAPEL A4 - AMARELO 500FLS - BRANCO 500FLS</t>
+    <t>PAPEL A4 - AMARELO 500FLS - AMARELO 500FLS</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CA1B47-1B15-4BDD-B8D9-C89104B20535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93547DE-012F-4841-A680-6B19CCC7B43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="186">
   <si>
     <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
   </si>
@@ -419,12 +419,6 @@
     <t>S030001</t>
   </si>
   <si>
-    <t>BOM AR - 360ML</t>
-  </si>
-  <si>
-    <t>S010066</t>
-  </si>
-  <si>
     <t>CAFE - 250G - 250G</t>
   </si>
   <si>
@@ -591,6 +585,18 @@
   </si>
   <si>
     <t>PAPEL A4 - AMARELO 500FLS - AMARELO 500FLS</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
+  </si>
+  <si>
+    <t>S150189</t>
+  </si>
+  <si>
+    <t>DESODORIZADOR DE AMBIENTE - UNICA</t>
+  </si>
+  <si>
+    <t>S010012</t>
   </si>
 </sst>
 </file>
@@ -698,7 +704,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -734,9 +749,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -774,7 +789,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -880,7 +895,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1022,7 +1037,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1030,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1064,7 @@
         <v>121</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>122</v>
@@ -1063,7 +1078,7 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>125</v>
@@ -1074,16 +1089,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,7 +1106,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>103</v>
@@ -1105,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -1119,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -1130,58 +1145,58 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>138</v>
+        <v>101</v>
+      </c>
+      <c r="D7" s="2">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="2">
-        <v>53</v>
+        <v>135</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1189,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -1203,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -1214,167 +1229,167 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -1382,125 +1397,125 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="D26" s="2">
-        <v>52</v>
+        <v>904</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D27" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>903</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="2">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="2">
-        <v>100</v>
+        <v>183</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="D31" s="2">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -1508,41 +1523,41 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D34" s="5">
+        <v>31</v>
+      </c>
+      <c r="D34" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="2">
+        <v>169</v>
+      </c>
+      <c r="D35" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -1550,41 +1565,41 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>141</v>
+        <v>35</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -1592,153 +1607,153 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D40" s="2">
-        <v>899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="2">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="2">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>141</v>
+        <v>41</v>
+      </c>
+      <c r="D44" s="2">
+        <v>898</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" s="2">
-        <v>471</v>
+        <v>149</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="D46" s="2">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D47" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>141</v>
+        <v>46</v>
+      </c>
+      <c r="D48" s="2">
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -1746,27 +1761,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D51" s="2">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D52" s="2">
         <v>80</v>
@@ -1774,27 +1789,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D53" s="2">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -1802,13 +1817,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -1816,545 +1831,545 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="D56" s="2">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D57" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D58" s="2">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="D59" s="2">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D60" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D61" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="D62" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="2">
-        <v>211</v>
+        <v>153</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>141</v>
+        <v>67</v>
+      </c>
+      <c r="D66" s="2">
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="2">
-        <v>821</v>
+        <v>155</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D68" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D69" s="2">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D70" s="2">
-        <v>553</v>
+        <v>750</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D71" s="2">
-        <v>72</v>
+        <v>553</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D72" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D73" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D74" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D75" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D76" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D77" s="2">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D78" s="2">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D79" s="2">
-        <v>1</v>
+        <v>695</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>141</v>
+        <v>87</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" s="2">
-        <v>107</v>
+        <v>157</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D82" s="2">
-        <v>918</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D83" s="2">
-        <v>170</v>
+        <v>918</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D84" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D85" s="2">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D86" s="2">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D87" s="2">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D88" s="2">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D89" s="2">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="D90" s="2">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>141</v>
+        <v>164</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D92" s="2">
-        <v>2</v>
+        <v>159</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="D93" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D94" s="2">
         <v>1</v>
@@ -2362,37 +2377,53 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D95" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
-      <sortCondition ref="A1:A86"/>
+  <autoFilter ref="A1:D96" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D96">
+      <sortCondition ref="A1:A96"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D95">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
+  <conditionalFormatting sqref="A2:D12 A15:D96">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A13:D14">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A13))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="D3 D7:D32 D50:D66 D93:D95 D91 D37:D48 D75:D89 D68:D74" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93547DE-012F-4841-A680-6B19CCC7B43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EE90F9-B1C3-4945-8984-5430CA6374E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -452,12 +452,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>AVENTAL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010007</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -597,6 +591,12 @@
   </si>
   <si>
     <t>S010012</t>
+  </si>
+  <si>
+    <t>AVENTAL C/ MANGA - UNICA</t>
+  </si>
+  <si>
+    <t>S150204</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1064,7 @@
         <v>121</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>122</v>
@@ -1078,7 +1078,7 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>125</v>
@@ -1092,7 +1092,7 @@
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>132</v>
@@ -1106,7 +1106,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>103</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -1134,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -1148,7 +1148,7 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>101</v>
@@ -1162,7 +1162,7 @@
         <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>135</v>
@@ -1173,30 +1173,30 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1204,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -1218,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -1232,7 +1232,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1246,7 +1246,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -1260,7 +1260,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -1274,7 +1274,7 @@
         <v>126</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>127</v>
@@ -1288,7 +1288,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -1302,7 +1302,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -1313,16 +1313,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1330,7 +1330,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -1344,7 +1344,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -1355,10 +1355,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -1372,7 +1372,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>21</v>
@@ -1386,7 +1386,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
@@ -1400,7 +1400,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -1414,7 +1414,7 @@
         <v>104</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>105</v>
@@ -1428,7 +1428,7 @@
         <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>105</v>
@@ -1442,7 +1442,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>27</v>
@@ -1456,7 +1456,7 @@
         <v>128</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>27</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1481,13 +1481,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1498,7 +1498,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>29</v>
@@ -1509,13 +1509,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -1526,7 +1526,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>31</v>
@@ -1537,13 +1537,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -1554,7 +1554,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>33</v>
@@ -1568,7 +1568,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>35</v>
@@ -1579,16 +1579,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1596,7 +1596,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>37</v>
@@ -1610,7 +1610,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>39</v>
@@ -1624,7 +1624,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>41</v>
@@ -1638,7 +1638,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>41</v>
@@ -1652,7 +1652,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>41</v>
@@ -1666,7 +1666,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>41</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
         <v>129</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>130</v>
@@ -1708,7 +1708,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>46</v>
@@ -1722,7 +1722,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>46</v>
@@ -1733,27 +1733,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -1764,7 +1764,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>49</v>
@@ -1778,7 +1778,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>51</v>
@@ -1792,7 +1792,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>53</v>
@@ -1806,7 +1806,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>55</v>
@@ -1820,7 +1820,7 @@
         <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>108</v>
@@ -1834,7 +1834,7 @@
         <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>110</v>
@@ -1848,7 +1848,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>57</v>
@@ -1862,7 +1862,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>59</v>
@@ -1876,7 +1876,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>61</v>
@@ -1890,7 +1890,7 @@
         <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>112</v>
@@ -1904,7 +1904,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>112</v>
@@ -1918,7 +1918,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>112</v>
@@ -1932,7 +1932,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>63</v>
@@ -1946,7 +1946,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>65</v>
@@ -1957,16 +1957,16 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>67</v>
@@ -1985,24 +1985,24 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>68</v>
@@ -2016,7 +2016,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>68</v>
@@ -2030,7 +2030,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>71</v>
@@ -2044,7 +2044,7 @@
         <v>72</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>73</v>
@@ -2058,7 +2058,7 @@
         <v>74</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>75</v>
@@ -2072,7 +2072,7 @@
         <v>76</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>77</v>
@@ -2086,7 +2086,7 @@
         <v>78</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>77</v>
@@ -2100,7 +2100,7 @@
         <v>79</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>77</v>
@@ -2114,7 +2114,7 @@
         <v>80</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>81</v>
@@ -2128,7 +2128,7 @@
         <v>82</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>81</v>
@@ -2142,7 +2142,7 @@
         <v>85</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>84</v>
@@ -2156,7 +2156,7 @@
         <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>84</v>
@@ -2170,7 +2170,7 @@
         <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>87</v>
@@ -2181,16 +2181,16 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2198,7 +2198,7 @@
         <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>89</v>
@@ -2212,7 +2212,7 @@
         <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>116</v>
@@ -2226,7 +2226,7 @@
         <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>91</v>
@@ -2240,7 +2240,7 @@
         <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>91</v>
@@ -2254,7 +2254,7 @@
         <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>91</v>
@@ -2268,7 +2268,7 @@
         <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>95</v>
@@ -2282,7 +2282,7 @@
         <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>95</v>
@@ -2296,7 +2296,7 @@
         <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>95</v>
@@ -2310,7 +2310,7 @@
         <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>99</v>
@@ -2321,13 +2321,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D91" s="2">
         <v>1</v>
@@ -2335,27 +2335,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D93" s="2">
         <v>2</v>
@@ -2366,7 +2366,7 @@
         <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>118</v>
@@ -2380,7 +2380,7 @@
         <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>120</v>
@@ -2391,16 +2391,16 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2410,18 +2410,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D12 A15:D96">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
+  <conditionalFormatting sqref="A2:D8 A10:D96">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D14">
+  <conditionalFormatting sqref="A9:D9">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A13))&gt;0</formula>
+      <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EE90F9-B1C3-4945-8984-5430CA6374E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F732228D-F293-457C-B1AA-332DBB3C12EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="188">
   <si>
     <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
   </si>
@@ -597,6 +597,12 @@
   </si>
   <si>
     <t>S150204</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - UNICA</t>
+  </si>
+  <si>
+    <t>S020036</t>
   </si>
 </sst>
 </file>
@@ -1045,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,13 +2173,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
@@ -2181,77 +2187,77 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>137</v>
+        <v>87</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D82" s="2">
-        <v>107</v>
+        <v>155</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D83" s="2">
-        <v>918</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D84" s="2">
-        <v>170</v>
+        <v>918</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D85" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>171</v>
@@ -2260,40 +2266,40 @@
         <v>91</v>
       </c>
       <c r="D86" s="2">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D87" s="2">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D88" s="2">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>177</v>
@@ -2302,88 +2308,88 @@
         <v>95</v>
       </c>
       <c r="D89" s="2">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D90" s="2">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="D91" s="2">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>137</v>
+        <v>162</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D93" s="2">
-        <v>2</v>
+        <v>157</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="D94" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D95" s="2">
         <v>1</v>
@@ -2391,37 +2397,51 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="B97" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D96" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D96">
-      <sortCondition ref="A1:A96"/>
+  <autoFilter ref="A1:D97" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D97">
+      <sortCondition ref="A1:A97"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D8 A10:D96">
+  <conditionalFormatting sqref="A2:D79 A81:D97">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:D9">
+  <conditionalFormatting sqref="A80:D80">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A9))&gt;0</formula>
+      <formula>LEN(TRIM(A80))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F732228D-F293-457C-B1AA-332DBB3C12EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5507E303-B499-4085-B211-6B11017A6051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="189">
   <si>
     <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
   </si>
@@ -398,12 +398,6 @@
     <t>S150190</t>
   </si>
   <si>
-    <t>TOUCA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010054</t>
-  </si>
-  <si>
     <t>Complemento</t>
   </si>
   <si>
@@ -603,6 +597,15 @@
   </si>
   <si>
     <t>S020036</t>
+  </si>
+  <si>
+    <t>TOUCA SANFONADA - DESCARTÁVEL - 100UN</t>
+  </si>
+  <si>
+    <t>S080015</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1053,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:XFD80"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,27 +1079,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2">
         <v>54</v>
@@ -1095,16 +1107,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1112,7 +1124,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>103</v>
@@ -1126,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -1140,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -1154,7 +1166,7 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>101</v>
@@ -1165,44 +1177,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1210,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -1224,7 +1236,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -1238,7 +1250,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1252,7 +1264,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -1266,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -1277,13 +1289,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2">
         <v>58</v>
@@ -1294,7 +1306,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -1308,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -1319,16 +1331,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1336,7 +1348,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -1350,7 +1362,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -1361,10 +1373,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -1378,7 +1390,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>21</v>
@@ -1392,7 +1404,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
@@ -1406,7 +1418,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -1420,7 +1432,7 @@
         <v>104</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>105</v>
@@ -1434,7 +1446,7 @@
         <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>105</v>
@@ -1448,7 +1460,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>27</v>
@@ -1459,10 +1471,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>27</v>
@@ -1473,13 +1485,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1487,13 +1499,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1504,7 +1516,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>29</v>
@@ -1515,13 +1527,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -1532,7 +1544,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>31</v>
@@ -1543,13 +1555,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -1560,7 +1572,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>33</v>
@@ -1574,7 +1586,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>35</v>
@@ -1585,16 +1597,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1602,7 +1614,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>37</v>
@@ -1616,7 +1628,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>39</v>
@@ -1630,7 +1642,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>41</v>
@@ -1644,7 +1656,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>41</v>
@@ -1658,7 +1670,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>41</v>
@@ -1672,7 +1684,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>41</v>
@@ -1683,27 +1695,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D46" s="2">
         <v>471</v>
@@ -1714,7 +1726,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>46</v>
@@ -1728,7 +1740,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>46</v>
@@ -1739,27 +1751,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -1770,7 +1782,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>49</v>
@@ -1784,7 +1796,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>51</v>
@@ -1798,7 +1810,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>53</v>
@@ -1812,7 +1824,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>55</v>
@@ -1826,7 +1838,7 @@
         <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>108</v>
@@ -1840,7 +1852,7 @@
         <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>110</v>
@@ -1854,7 +1866,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>57</v>
@@ -1868,7 +1880,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>59</v>
@@ -1882,7 +1894,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>61</v>
@@ -1896,7 +1908,7 @@
         <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>112</v>
@@ -1910,7 +1922,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>112</v>
@@ -1924,7 +1936,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>112</v>
@@ -1938,7 +1950,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>63</v>
@@ -1952,7 +1964,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>65</v>
@@ -1963,16 +1975,16 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1980,7 +1992,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>67</v>
@@ -1991,24 +2003,24 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>68</v>
@@ -2022,7 +2034,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>68</v>
@@ -2036,7 +2048,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>71</v>
@@ -2050,7 +2062,7 @@
         <v>72</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>73</v>
@@ -2064,7 +2076,7 @@
         <v>74</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>75</v>
@@ -2078,7 +2090,7 @@
         <v>76</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>77</v>
@@ -2092,7 +2104,7 @@
         <v>78</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>77</v>
@@ -2106,7 +2118,7 @@
         <v>79</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>77</v>
@@ -2120,7 +2132,7 @@
         <v>80</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>81</v>
@@ -2134,7 +2146,7 @@
         <v>82</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>81</v>
@@ -2148,7 +2160,7 @@
         <v>85</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>84</v>
@@ -2162,7 +2174,7 @@
         <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>84</v>
@@ -2173,13 +2185,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
@@ -2190,7 +2202,7 @@
         <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>87</v>
@@ -2201,16 +2213,16 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2218,7 +2230,7 @@
         <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>89</v>
@@ -2232,7 +2244,7 @@
         <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>116</v>
@@ -2246,7 +2258,7 @@
         <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>91</v>
@@ -2260,7 +2272,7 @@
         <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>91</v>
@@ -2274,7 +2286,7 @@
         <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>91</v>
@@ -2288,7 +2300,7 @@
         <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>95</v>
@@ -2302,7 +2314,7 @@
         <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>95</v>
@@ -2316,7 +2328,7 @@
         <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>95</v>
@@ -2330,7 +2342,7 @@
         <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>99</v>
@@ -2341,13 +2353,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D92" s="2">
         <v>1</v>
@@ -2355,27 +2367,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D94" s="2">
         <v>2</v>
@@ -2386,7 +2398,7 @@
         <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>118</v>
@@ -2397,30 +2409,30 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D96" s="2">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2430,18 +2442,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D79 A81:D97">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D95 A97:D97">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80:D80">
+  <conditionalFormatting sqref="A96:D96">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A80))&gt;0</formula>
+      <formula>LEN(TRIM(A96))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5507E303-B499-4085-B211-6B11017A6051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6CE970-927B-47F2-A3F5-F5684C637511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -251,12 +251,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -606,6 +600,12 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -713,16 +713,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1065,9 +1056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:D96"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1079,27 +1068,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2">
         <v>54</v>
@@ -1107,27 +1096,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1138,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -1152,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -1163,13 +1152,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2">
         <v>53</v>
@@ -1177,44 +1166,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1222,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -1236,7 +1225,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -1250,7 +1239,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1264,7 +1253,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -1278,7 +1267,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -1289,13 +1278,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="2">
         <v>58</v>
@@ -1306,7 +1295,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -1320,7 +1309,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -1331,16 +1320,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,7 +1337,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -1362,7 +1351,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -1373,10 +1362,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -1390,7 +1379,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>21</v>
@@ -1404,7 +1393,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
@@ -1418,7 +1407,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -1429,13 +1418,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D26" s="2">
         <v>904</v>
@@ -1443,13 +1432,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D27" s="2">
         <v>903</v>
@@ -1460,7 +1449,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>27</v>
@@ -1471,10 +1460,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>27</v>
@@ -1485,13 +1474,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1499,13 +1488,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1516,7 +1505,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>29</v>
@@ -1527,13 +1516,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -1544,7 +1533,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>31</v>
@@ -1555,13 +1544,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -1572,7 +1561,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>33</v>
@@ -1586,7 +1575,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>35</v>
@@ -1597,16 +1586,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1614,7 +1603,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>37</v>
@@ -1628,7 +1617,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>39</v>
@@ -1642,7 +1631,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>41</v>
@@ -1656,7 +1645,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>41</v>
@@ -1670,7 +1659,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>41</v>
@@ -1684,7 +1673,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>41</v>
@@ -1695,97 +1684,97 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="D46" s="2">
-        <v>471</v>
+        <v>750</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="D47" s="2">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>135</v>
+        <v>46</v>
+      </c>
+      <c r="D49" s="2">
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -1793,27 +1782,27 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D52" s="2">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D53" s="2">
         <v>80</v>
@@ -1821,27 +1810,27 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D54" s="2">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -1849,13 +1838,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -1863,209 +1852,209 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="D57" s="2">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D58" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D59" s="2">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="D60" s="2">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D61" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D62" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="D63" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D64" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>135</v>
+        <v>65</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" s="2">
-        <v>211</v>
+        <v>147</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>135</v>
+        <v>67</v>
+      </c>
+      <c r="D67" s="2">
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="2">
-        <v>821</v>
+        <v>149</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D69" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D70" s="2">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D71" s="2">
         <v>553</v>
@@ -2073,13 +2062,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D72" s="2">
         <v>72</v>
@@ -2087,13 +2076,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D73" s="2">
         <v>86</v>
@@ -2101,13 +2090,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D74" s="2">
         <v>87</v>
@@ -2115,13 +2104,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D75" s="2">
         <v>88</v>
@@ -2129,13 +2118,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D76" s="2">
         <v>55</v>
@@ -2143,13 +2132,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D77" s="2">
         <v>54</v>
@@ -2157,13 +2146,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D78" s="2">
         <v>994</v>
@@ -2171,13 +2160,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D79" s="2">
         <v>695</v>
@@ -2185,13 +2174,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
@@ -2199,13 +2188,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D81" s="2">
         <v>1</v>
@@ -2213,27 +2202,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D83" s="2">
         <v>107</v>
@@ -2241,13 +2230,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D84" s="2">
         <v>918</v>
@@ -2255,13 +2244,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D85" s="2">
         <v>170</v>
@@ -2269,13 +2258,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D86" s="2">
         <v>163</v>
@@ -2283,13 +2272,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D87" s="2">
         <v>799</v>
@@ -2297,13 +2286,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D88" s="2">
         <v>160</v>
@@ -2311,13 +2300,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D89" s="2">
         <v>569</v>
@@ -2325,13 +2314,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D90" s="2">
         <v>762</v>
@@ -2339,13 +2328,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D91" s="2">
         <v>211</v>
@@ -2353,13 +2342,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D92" s="2">
         <v>1</v>
@@ -2367,27 +2356,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D94" s="2">
         <v>2</v>
@@ -2395,13 +2384,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D95" s="2">
         <v>1</v>
@@ -2409,30 +2398,30 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2442,18 +2431,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D95 A97:D97">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
+  <conditionalFormatting sqref="A2:D69 A71:D97">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96:D96">
+  <conditionalFormatting sqref="A70:D70">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A96))&gt;0</formula>
+      <formula>LEN(TRIM(A70))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6CE970-927B-47F2-A3F5-F5684C637511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247B8B7F-B00F-46B4-9780-2A3E07CD39AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -149,9 +149,6 @@
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -606,6 +603,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1056,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:D39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1068,27 +1070,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D2" s="2">
         <v>54</v>
@@ -1096,27 +1098,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1127,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -1141,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -1152,13 +1154,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D7" s="2">
         <v>53</v>
@@ -1166,44 +1168,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1211,7 +1213,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -1225,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -1239,7 +1241,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1253,7 +1255,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -1267,7 +1269,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -1278,13 +1280,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D16" s="2">
         <v>58</v>
@@ -1295,7 +1297,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -1309,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -1320,16 +1322,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1337,7 +1339,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -1351,7 +1353,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -1362,10 +1364,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -1379,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>21</v>
@@ -1393,7 +1395,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
@@ -1407,7 +1409,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -1418,13 +1420,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D26" s="2">
         <v>904</v>
@@ -1432,13 +1434,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="2">
         <v>903</v>
@@ -1449,7 +1451,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>27</v>
@@ -1460,10 +1462,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>27</v>
@@ -1474,13 +1476,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1488,13 +1490,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1505,7 +1507,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>29</v>
@@ -1516,13 +1518,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -1533,7 +1535,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>31</v>
@@ -1544,13 +1546,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -1561,7 +1563,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>33</v>
@@ -1575,7 +1577,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>35</v>
@@ -1586,41 +1588,41 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D39" s="2">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -1628,13 +1630,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D41" s="2">
         <v>899</v>
@@ -1642,13 +1644,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2">
         <v>896</v>
@@ -1656,13 +1658,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="2">
         <v>900</v>
@@ -1670,13 +1672,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2">
         <v>898</v>
@@ -1684,27 +1686,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="D46" s="2">
         <v>750</v>
@@ -1712,13 +1714,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D47" s="2">
         <v>471</v>
@@ -1726,13 +1728,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D48" s="2">
         <v>166</v>
@@ -1740,13 +1742,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2">
         <v>167</v>
@@ -1754,27 +1756,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -1782,13 +1784,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -1796,13 +1798,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D53" s="2">
         <v>80</v>
@@ -1810,13 +1812,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D54" s="2">
         <v>80</v>
@@ -1824,13 +1826,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -1838,13 +1840,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -1852,13 +1854,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D57" s="2">
         <v>1</v>
@@ -1866,13 +1868,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D58" s="2">
         <v>40</v>
@@ -1880,13 +1882,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D59" s="2">
         <v>1</v>
@@ -1894,13 +1896,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D60" s="2">
         <v>745</v>
@@ -1908,13 +1910,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D61" s="2">
         <v>33</v>
@@ -1922,13 +1924,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D62" s="2">
         <v>32</v>
@@ -1936,13 +1938,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D63" s="2">
         <v>31</v>
@@ -1950,13 +1952,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
@@ -1964,13 +1966,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D65" s="2">
         <v>1</v>
@@ -1978,27 +1980,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D67" s="2">
         <v>211</v>
@@ -2006,27 +2008,27 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="D68" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" s="2">
         <v>821</v>
@@ -2034,13 +2036,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="2">
         <v>819</v>
@@ -2048,13 +2050,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D71" s="2">
         <v>553</v>
@@ -2062,13 +2064,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D72" s="2">
         <v>72</v>
@@ -2076,13 +2078,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D73" s="2">
         <v>86</v>
@@ -2090,13 +2092,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D74" s="2">
         <v>87</v>
@@ -2104,13 +2106,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D75" s="2">
         <v>88</v>
@@ -2118,13 +2120,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D76" s="2">
         <v>55</v>
@@ -2132,13 +2134,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D77" s="2">
         <v>54</v>
@@ -2146,13 +2148,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D78" s="2">
         <v>994</v>
@@ -2160,13 +2162,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D79" s="2">
         <v>695</v>
@@ -2174,13 +2176,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
@@ -2188,13 +2190,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D81" s="2">
         <v>1</v>
@@ -2202,27 +2204,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="D82" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D83" s="2">
         <v>107</v>
@@ -2230,13 +2232,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D84" s="2">
         <v>918</v>
@@ -2244,13 +2246,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D85" s="2">
         <v>170</v>
@@ -2258,13 +2260,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D86" s="2">
         <v>163</v>
@@ -2272,13 +2274,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D87" s="2">
         <v>799</v>
@@ -2286,13 +2288,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D88" s="2">
         <v>160</v>
@@ -2300,13 +2302,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D89" s="2">
         <v>569</v>
@@ -2314,13 +2316,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D90" s="2">
         <v>762</v>
@@ -2328,13 +2330,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D91" s="2">
         <v>211</v>
@@ -2342,13 +2344,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D92" s="2">
         <v>1</v>
@@ -2356,27 +2358,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D93" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D94" s="2">
         <v>2</v>
@@ -2384,13 +2386,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D95" s="2">
         <v>1</v>
@@ -2398,30 +2400,30 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="D97" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2431,18 +2433,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D69 A71:D97">
+  <conditionalFormatting sqref="A2:D38 A40:D97">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:D70">
+  <conditionalFormatting sqref="A39:D39">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A70))&gt;0</formula>
+      <formula>LEN(TRIM(A39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247B8B7F-B00F-46B4-9780-2A3E07CD39AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A849AD1A-2DD6-4E6C-8820-DB10E2D48EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -359,12 +359,6 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>LENCOL HOSPITALAR PAPEL 50CMX50M - UNICA</t>
-  </si>
-  <si>
-    <t>S010084</t>
-  </si>
-  <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G - TAMANHO G</t>
   </si>
   <si>
@@ -572,9 +566,6 @@
     <t>S150189</t>
   </si>
   <si>
-    <t>DESODORIZADOR DE AMBIENTE - UNICA</t>
-  </si>
-  <si>
     <t>S010012</t>
   </si>
   <si>
@@ -606,6 +597,15 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>DESODORIZADOR DE AMBIENTE - SPRAY</t>
+  </si>
+  <si>
+    <t>LENCOL HOSPITALAR DE PAPEL - 50CMX50M</t>
+  </si>
+  <si>
+    <t>S010024</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1056,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:D39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,27 +1079,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2">
         <v>54</v>
@@ -1098,16 +1107,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1115,7 +1124,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>100</v>
@@ -1129,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -1143,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -1157,7 +1166,7 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>98</v>
@@ -1168,44 +1177,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -1227,7 +1236,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -1241,7 +1250,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1255,7 +1264,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -1269,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -1280,13 +1289,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D16" s="2">
         <v>58</v>
@@ -1297,7 +1306,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -1311,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -1322,16 +1331,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1339,7 +1348,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -1353,7 +1362,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -1364,10 +1373,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -1381,7 +1390,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>21</v>
@@ -1395,7 +1404,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
@@ -1409,7 +1418,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -1423,7 +1432,7 @@
         <v>101</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>102</v>
@@ -1437,7 +1446,7 @@
         <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>102</v>
@@ -1451,7 +1460,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>27</v>
@@ -1462,10 +1471,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>27</v>
@@ -1476,13 +1485,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1490,16 +1499,16 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D31" s="2">
-        <v>1</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1507,7 +1516,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>29</v>
@@ -1518,13 +1527,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -1535,7 +1544,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>31</v>
@@ -1546,13 +1555,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -1563,7 +1572,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>33</v>
@@ -1577,7 +1586,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>35</v>
@@ -1588,24 +1597,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>36</v>
@@ -1619,7 +1628,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>38</v>
@@ -1633,7 +1642,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>40</v>
@@ -1647,7 +1656,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>40</v>
@@ -1661,7 +1670,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>40</v>
@@ -1675,7 +1684,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>40</v>
@@ -1686,27 +1695,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D46" s="2">
         <v>750</v>
@@ -1714,13 +1723,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D47" s="2">
         <v>471</v>
@@ -1731,7 +1740,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>45</v>
@@ -1745,7 +1754,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>45</v>
@@ -1756,27 +1765,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -1787,7 +1796,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>48</v>
@@ -1801,7 +1810,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>50</v>
@@ -1815,7 +1824,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>52</v>
@@ -1829,7 +1838,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>54</v>
@@ -1843,7 +1852,7 @@
         <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>105</v>
@@ -1854,16 +1863,16 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="D57" s="2">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1871,7 +1880,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>56</v>
@@ -1885,7 +1894,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>58</v>
@@ -1899,7 +1908,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>60</v>
@@ -1910,13 +1919,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D61" s="2">
         <v>33</v>
@@ -1924,13 +1933,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D62" s="2">
         <v>32</v>
@@ -1938,13 +1947,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D63" s="2">
         <v>31</v>
@@ -1955,7 +1964,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>62</v>
@@ -1969,7 +1978,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>64</v>
@@ -1980,16 +1989,16 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1997,7 +2006,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>66</v>
@@ -2008,24 +2017,24 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>67</v>
@@ -2039,7 +2048,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>67</v>
@@ -2053,7 +2062,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>70</v>
@@ -2067,7 +2076,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>72</v>
@@ -2081,7 +2090,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>74</v>
@@ -2095,7 +2104,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>74</v>
@@ -2109,7 +2118,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>74</v>
@@ -2123,7 +2132,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>78</v>
@@ -2137,7 +2146,7 @@
         <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>78</v>
@@ -2151,7 +2160,7 @@
         <v>82</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>81</v>
@@ -2165,7 +2174,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>81</v>
@@ -2176,13 +2185,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
@@ -2193,7 +2202,7 @@
         <v>83</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>84</v>
@@ -2204,16 +2213,16 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2221,7 +2230,7 @@
         <v>85</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>86</v>
@@ -2232,13 +2241,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D84" s="2">
         <v>918</v>
@@ -2249,7 +2258,7 @@
         <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>88</v>
@@ -2263,7 +2272,7 @@
         <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>88</v>
@@ -2277,7 +2286,7 @@
         <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>88</v>
@@ -2291,7 +2300,7 @@
         <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>92</v>
@@ -2305,7 +2314,7 @@
         <v>93</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>92</v>
@@ -2319,7 +2328,7 @@
         <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>92</v>
@@ -2333,7 +2342,7 @@
         <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>96</v>
@@ -2344,13 +2353,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D92" s="2">
         <v>1</v>
@@ -2358,27 +2367,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D94" s="2">
         <v>2</v>
@@ -2386,13 +2395,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D95" s="2">
         <v>1</v>
@@ -2400,30 +2409,30 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2433,18 +2442,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D38 A40:D97">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D30 A32:D56 A58:D97">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:D39">
+  <conditionalFormatting sqref="A31:D31">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A31))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:D57">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A39))&gt;0</formula>
+      <formula>LEN(TRIM(A57))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A849AD1A-2DD6-4E6C-8820-DB10E2D48EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C803E5-4746-4563-80D8-0E61478C4BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="186">
   <si>
     <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
   </si>
@@ -131,18 +131,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -503,9 +491,6 @@
     <t>S010087</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
@@ -518,12 +503,6 @@
     <t>S020009</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
   </si>
   <si>
@@ -606,6 +585,18 @@
   </si>
   <si>
     <t>S010024</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -713,16 +704,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1065,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:D57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,27 +1061,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2">
         <v>54</v>
@@ -1107,27 +1089,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1138,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -1152,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -1163,13 +1145,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2">
         <v>53</v>
@@ -1177,44 +1159,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1222,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -1236,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -1250,7 +1232,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1264,7 +1246,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -1278,7 +1260,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -1289,13 +1271,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D16" s="2">
         <v>58</v>
@@ -1306,7 +1288,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -1320,7 +1302,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -1331,16 +1313,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,7 +1330,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -1362,7 +1344,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -1373,10 +1355,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -1390,7 +1372,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>21</v>
@@ -1404,7 +1386,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
@@ -1418,7 +1400,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -1429,13 +1411,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D26" s="2">
         <v>904</v>
@@ -1443,13 +1425,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2">
         <v>903</v>
@@ -1460,7 +1442,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>27</v>
@@ -1471,10 +1453,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>27</v>
@@ -1485,13 +1467,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1499,13 +1481,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D31" s="2">
         <v>1160</v>
@@ -1516,7 +1498,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>29</v>
@@ -1527,69 +1509,69 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D33" s="2">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="D34" s="2">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1178</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="D36" s="2">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -1597,27 +1579,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2">
         <v>1159</v>
@@ -1625,13 +1607,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -1639,13 +1621,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2">
         <v>899</v>
@@ -1653,13 +1635,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2">
         <v>896</v>
@@ -1667,13 +1649,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D43" s="2">
         <v>900</v>
@@ -1681,13 +1663,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D44" s="2">
         <v>898</v>
@@ -1695,27 +1677,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D46" s="2">
         <v>750</v>
@@ -1723,13 +1705,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D47" s="2">
         <v>471</v>
@@ -1737,13 +1719,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D48" s="2">
         <v>166</v>
@@ -1751,13 +1733,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D49" s="2">
         <v>167</v>
@@ -1765,27 +1747,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -1793,13 +1775,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -1807,13 +1789,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D53" s="2">
         <v>80</v>
@@ -1821,13 +1803,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D54" s="2">
         <v>80</v>
@@ -1835,13 +1817,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -1849,13 +1831,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -1863,13 +1845,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D57" s="2">
         <v>1163</v>
@@ -1877,13 +1859,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D58" s="2">
         <v>40</v>
@@ -1891,13 +1873,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D59" s="2">
         <v>1</v>
@@ -1905,13 +1887,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D60" s="2">
         <v>745</v>
@@ -1919,13 +1901,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D61" s="2">
         <v>33</v>
@@ -1933,13 +1915,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D62" s="2">
         <v>32</v>
@@ -1947,13 +1929,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D63" s="2">
         <v>31</v>
@@ -1961,13 +1943,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
@@ -1975,13 +1957,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D65" s="2">
         <v>1</v>
@@ -1989,27 +1971,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D67" s="2">
         <v>211</v>
@@ -2017,27 +1999,27 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D69" s="2">
         <v>821</v>
@@ -2045,13 +2027,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D70" s="2">
         <v>819</v>
@@ -2059,13 +2041,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D71" s="2">
         <v>553</v>
@@ -2073,13 +2055,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D72" s="2">
         <v>72</v>
@@ -2087,13 +2069,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D73" s="2">
         <v>86</v>
@@ -2101,13 +2083,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D74" s="2">
         <v>87</v>
@@ -2115,13 +2097,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D75" s="2">
         <v>88</v>
@@ -2129,13 +2111,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D76" s="2">
         <v>55</v>
@@ -2143,13 +2125,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D77" s="2">
         <v>54</v>
@@ -2157,13 +2139,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D78" s="2">
         <v>994</v>
@@ -2171,13 +2153,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D79" s="2">
         <v>695</v>
@@ -2185,13 +2167,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
@@ -2199,13 +2181,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D81" s="2">
         <v>1</v>
@@ -2213,27 +2195,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D83" s="2">
         <v>107</v>
@@ -2241,13 +2223,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D84" s="2">
         <v>918</v>
@@ -2255,13 +2237,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D85" s="2">
         <v>170</v>
@@ -2269,13 +2251,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D86" s="2">
         <v>163</v>
@@ -2283,13 +2265,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D87" s="2">
         <v>799</v>
@@ -2297,13 +2279,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D88" s="2">
         <v>160</v>
@@ -2311,13 +2293,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D89" s="2">
         <v>569</v>
@@ -2325,13 +2307,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D90" s="2">
         <v>762</v>
@@ -2339,13 +2321,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D91" s="2">
         <v>211</v>
@@ -2353,13 +2335,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D92" s="2">
         <v>1</v>
@@ -2367,27 +2349,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D94" s="2">
         <v>2</v>
@@ -2395,13 +2377,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D95" s="2">
         <v>1</v>
@@ -2409,30 +2391,30 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2442,23 +2424,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D30 A32:D56 A58:D97">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D32 A37:D97">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:D31">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A31))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:D57">
+  <conditionalFormatting sqref="A33:D36">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A57))&gt;0</formula>
+      <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C803E5-4746-4563-80D8-0E61478C4BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52C5D79-0207-4969-9C9E-EC5861DEC3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="186">
-  <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="186">
   <si>
     <t>S010004</t>
   </si>
@@ -170,9 +167,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -347,18 +338,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010031</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -464,9 +446,6 @@
     <t>S150037</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -597,6 +576,27 @@
   </si>
   <si>
     <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,61 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1047,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:D36"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,27 +1115,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2">
         <v>54</v>
@@ -1089,27 +1143,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1117,13 +1171,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="D5" s="2">
         <v>105</v>
@@ -1131,13 +1185,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="D6" s="2">
         <v>103</v>
@@ -1145,13 +1199,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2">
         <v>53</v>
@@ -1159,55 +1213,55 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D11" s="2">
         <v>809</v>
@@ -1215,13 +1269,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D12" s="2">
         <v>1045</v>
@@ -1229,13 +1283,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D13" s="2">
         <v>103</v>
@@ -1243,13 +1297,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2">
         <v>33</v>
@@ -1257,13 +1311,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D15" s="2">
         <v>31</v>
@@ -1271,13 +1325,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D16" s="2">
         <v>58</v>
@@ -1285,13 +1339,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D17" s="2">
         <v>20</v>
@@ -1299,13 +1353,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1313,27 +1367,27 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D20" s="2">
         <v>2</v>
@@ -1341,13 +1395,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
@@ -1355,13 +1409,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
@@ -1369,13 +1423,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1383,13 +1437,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -1397,13 +1451,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D25" s="2">
         <v>52</v>
@@ -1411,13 +1465,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D26" s="2">
         <v>904</v>
@@ -1425,13 +1479,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D27" s="2">
         <v>903</v>
@@ -1439,13 +1493,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>109</v>
@@ -1453,13 +1507,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2">
         <v>100</v>
@@ -1467,13 +1521,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1481,13 +1535,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D31" s="2">
         <v>1160</v>
@@ -1495,13 +1549,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>103</v>
@@ -1509,13 +1563,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D33" s="2">
         <v>1176</v>
@@ -1523,13 +1577,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D34" s="2">
         <v>1177</v>
@@ -1537,13 +1591,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D35" s="2">
         <v>1178</v>
@@ -1551,13 +1605,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D36" s="2">
         <v>1179</v>
@@ -1565,13 +1619,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -1579,27 +1633,27 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2">
         <v>1159</v>
@@ -1607,13 +1661,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -1621,13 +1675,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D41" s="2">
         <v>899</v>
@@ -1635,13 +1689,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2">
         <v>896</v>
@@ -1649,13 +1703,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2">
         <v>900</v>
@@ -1663,13 +1717,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2">
         <v>898</v>
@@ -1677,27 +1731,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D46" s="2">
         <v>750</v>
@@ -1705,13 +1759,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D47" s="2">
         <v>471</v>
@@ -1719,13 +1773,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D48" s="2">
         <v>166</v>
@@ -1733,13 +1787,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2">
         <v>167</v>
@@ -1747,27 +1801,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -1775,27 +1829,27 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D52" s="2">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D53" s="2">
         <v>80</v>
@@ -1803,13 +1857,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D54" s="2">
         <v>80</v>
@@ -1817,13 +1871,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -1831,13 +1885,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -1845,13 +1899,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D57" s="2">
         <v>1163</v>
@@ -1859,13 +1913,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D58" s="2">
         <v>40</v>
@@ -1873,13 +1927,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D59" s="2">
         <v>1</v>
@@ -1887,13 +1941,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D60" s="2">
         <v>745</v>
@@ -1901,13 +1955,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D61" s="2">
         <v>33</v>
@@ -1915,13 +1969,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D62" s="2">
         <v>32</v>
@@ -1929,13 +1983,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D63" s="2">
         <v>31</v>
@@ -1943,13 +1997,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
@@ -1957,13 +2011,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D65" s="2">
         <v>1</v>
@@ -1971,27 +2025,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D67" s="2">
         <v>211</v>
@@ -1999,27 +2053,27 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1167</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D69" s="2">
         <v>821</v>
@@ -2027,13 +2081,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D70" s="2">
         <v>819</v>
@@ -2041,13 +2095,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D71" s="2">
         <v>553</v>
@@ -2055,13 +2109,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D72" s="2">
         <v>72</v>
@@ -2069,13 +2123,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D73" s="2">
         <v>86</v>
@@ -2083,13 +2137,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D74" s="2">
         <v>87</v>
@@ -2097,13 +2151,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D75" s="2">
         <v>88</v>
@@ -2111,13 +2165,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D76" s="2">
         <v>55</v>
@@ -2125,13 +2179,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D77" s="2">
         <v>54</v>
@@ -2139,13 +2193,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D78" s="2">
         <v>994</v>
@@ -2153,13 +2207,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D79" s="2">
         <v>695</v>
@@ -2167,13 +2221,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
@@ -2181,13 +2235,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D81" s="2">
         <v>1</v>
@@ -2195,27 +2249,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D83" s="2">
         <v>107</v>
@@ -2223,13 +2277,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D84" s="2">
         <v>918</v>
@@ -2237,13 +2291,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D85" s="2">
         <v>170</v>
@@ -2251,13 +2305,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D86" s="2">
         <v>163</v>
@@ -2265,13 +2319,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D87" s="2">
         <v>799</v>
@@ -2279,13 +2333,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D88" s="2">
         <v>160</v>
@@ -2293,13 +2347,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D89" s="2">
         <v>569</v>
@@ -2307,13 +2361,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D90" s="2">
         <v>762</v>
@@ -2321,13 +2375,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D91" s="2">
         <v>211</v>
@@ -2335,13 +2389,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D92" s="2">
         <v>1</v>
@@ -2349,27 +2403,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D94" s="2">
         <v>2</v>
@@ -2377,13 +2431,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D95" s="2">
         <v>1</v>
@@ -2391,30 +2445,30 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2424,18 +2478,48 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D32 A37:D97">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D4 A69:D97 A64:D64 A66:D67 A53:D60 A6:D51">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:D36">
+  <conditionalFormatting sqref="A68:D68">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(A68))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:D63">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(B61))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:A63">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A61))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:D65">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(B65))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A65))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:D52">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A52))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:D5">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A33))&gt;0</formula>
+      <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52C5D79-0207-4969-9C9E-EC5861DEC3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA238DA5-514A-4ED6-98BC-4EE77500F70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="185">
   <si>
     <t>S010004</t>
   </si>
@@ -327,9 +327,6 @@
   </si>
   <si>
     <t>S010009</t>
-  </si>
-  <si>
-    <t>COLETOR PERFURO-CORTANTE - 7LTS</t>
   </si>
   <si>
     <t>LANCETAS - UNICA</t>
@@ -704,70 +701,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1099,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,27 +1049,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D2" s="2">
         <v>54</v>
@@ -1143,16 +1077,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1160,7 +1094,7 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>93</v>
@@ -1171,10 +1105,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -1188,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -1202,7 +1136,7 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>91</v>
@@ -1213,44 +1147,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1258,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1272,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -1286,7 +1220,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1300,7 +1234,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1314,7 +1248,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1325,13 +1259,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D16" s="2">
         <v>58</v>
@@ -1342,7 +1276,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -1356,7 +1290,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -1367,16 +1301,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1384,7 +1318,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
@@ -1398,7 +1332,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
@@ -1409,10 +1343,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
@@ -1426,7 +1360,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -1440,7 +1374,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
@@ -1454,7 +1388,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
@@ -1468,7 +1402,7 @@
         <v>94</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>95</v>
@@ -1479,86 +1413,86 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2">
-        <v>903</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="2">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="2">
-        <v>100</v>
+        <v>159</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="5">
-        <v>1</v>
+      <c r="D30" s="2">
+        <v>1160</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
-        <v>1160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="D32" s="2">
-        <v>103</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1566,13 +1500,13 @@
         <v>175</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D33" s="2">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1580,13 +1514,13 @@
         <v>176</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D34" s="2">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1594,262 +1528,262 @@
         <v>177</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2">
-        <v>1179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>120</v>
+        <v>31</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1159</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
-        <v>1159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2">
-        <v>1</v>
+        <v>899</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="2">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="2">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="2">
-        <v>898</v>
+        <v>129</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>120</v>
+        <v>169</v>
+      </c>
+      <c r="D45" s="2">
+        <v>750</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="D46" s="2">
-        <v>750</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="D47" s="2">
-        <v>471</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="2">
-        <v>167</v>
+        <v>131</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>120</v>
+        <v>147</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="D51" s="2">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D52" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D53" s="2">
         <v>80</v>
@@ -1857,27 +1791,27 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D54" s="2">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -1885,72 +1819,72 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="D56" s="2">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="D57" s="2">
-        <v>1163</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D58" s="2">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D59" s="2">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="D60" s="2">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1958,13 +1892,13 @@
         <v>180</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D61" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1972,262 +1906,262 @@
         <v>181</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D62" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="D63" s="2">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D64" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>120</v>
+        <v>59</v>
+      </c>
+      <c r="D66" s="2">
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="D67" s="2">
-        <v>211</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="D68" s="2">
-        <v>1167</v>
+        <v>821</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D69" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D70" s="2">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D71" s="2">
-        <v>553</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D72" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D73" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D74" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D75" s="2">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D76" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D77" s="2">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D78" s="2">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="D79" s="2">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
@@ -2235,291 +2169,242 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D81" s="2">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>79</v>
+      </c>
+      <c r="D82" s="2">
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D83" s="2">
-        <v>107</v>
+        <v>918</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D84" s="2">
-        <v>918</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D85" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D86" s="2">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D87" s="2">
-        <v>799</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D88" s="2">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D89" s="2">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D90" s="2">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D91" s="2">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D92" s="2">
-        <v>1</v>
+        <v>138</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
+      </c>
+      <c r="D93" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="D94" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D95" s="2">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D97" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D97">
-      <sortCondition ref="A1:A97"/>
+  <autoFilter ref="A1:D96" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D96">
+      <sortCondition ref="A1:A96"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="8" priority="17">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D4 A69:D97 A64:D64 A66:D67 A53:D60 A6:D51">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+  <conditionalFormatting sqref="A2:D96">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:D68">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(A68))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:D63">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(B61))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A63">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A61))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65:D65">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(B65))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A65))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:D52">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A52))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:D5">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA238DA5-514A-4ED6-98BC-4EE77500F70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50F6853-F95C-492B-B959-B79DAAE7ECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -317,9 +317,6 @@
     <t>S010005</t>
   </si>
   <si>
-    <t>AGULHA - UNICA</t>
-  </si>
-  <si>
     <t>S010072</t>
   </si>
   <si>
@@ -335,9 +332,6 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>S010031</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -578,15 +572,6 @@
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL - UNICA</t>
   </si>
   <si>
@@ -594,6 +579,21 @@
   </si>
   <si>
     <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>AGULHA 12X40MM - 100UN</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080023</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,43 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1035,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,27 +1085,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2">
         <v>54</v>
@@ -1077,38 +1113,38 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
+      <c r="D4" s="5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -1122,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -1136,7 +1172,7 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>91</v>
@@ -1147,44 +1183,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1192,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1206,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -1220,7 +1256,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1234,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1248,7 +1284,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1259,13 +1295,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" s="2">
         <v>58</v>
@@ -1276,7 +1312,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -1290,7 +1326,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -1301,16 +1337,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1318,7 +1354,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
@@ -1332,7 +1368,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
@@ -1343,10 +1379,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
@@ -1360,7 +1396,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -1374,7 +1410,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
@@ -1388,7 +1424,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
@@ -1399,13 +1435,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D26" s="2">
         <v>904</v>
@@ -1416,7 +1452,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>26</v>
@@ -1427,10 +1463,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>26</v>
@@ -1441,13 +1477,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
@@ -1455,13 +1491,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D30" s="2">
         <v>1160</v>
@@ -1472,7 +1508,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>28</v>
@@ -1483,13 +1519,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D32" s="2">
         <v>1176</v>
@@ -1497,13 +1533,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D33" s="2">
         <v>1177</v>
@@ -1511,13 +1547,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D34" s="2">
         <v>1178</v>
@@ -1525,13 +1561,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D35" s="2">
         <v>1179</v>
@@ -1542,7 +1578,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>30</v>
@@ -1553,30 +1589,30 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D38" s="2">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1584,7 +1620,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
@@ -1598,7 +1634,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>35</v>
@@ -1612,7 +1648,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>35</v>
@@ -1626,7 +1662,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>35</v>
@@ -1640,7 +1676,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>35</v>
@@ -1651,27 +1687,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D45" s="2">
         <v>750</v>
@@ -1679,13 +1715,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D46" s="2">
         <v>471</v>
@@ -1696,7 +1732,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>40</v>
@@ -1710,7 +1746,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>40</v>
@@ -1721,27 +1757,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -1749,10 +1785,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>42</v>
@@ -1766,7 +1802,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>44</v>
@@ -1780,7 +1816,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>46</v>
@@ -1794,7 +1830,7 @@
         <v>47</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>48</v>
@@ -1805,13 +1841,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -1819,13 +1855,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" s="2">
         <v>1163</v>
@@ -1836,7 +1872,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>50</v>
@@ -1850,7 +1886,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>52</v>
@@ -1864,7 +1900,7 @@
         <v>53</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>54</v>
@@ -1875,13 +1911,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="D60" s="2">
         <v>33</v>
@@ -1889,13 +1925,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="D61" s="2">
         <v>32</v>
@@ -1903,13 +1939,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="D62" s="2">
         <v>31</v>
@@ -1920,7 +1956,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>56</v>
@@ -1931,10 +1967,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>57</v>
@@ -1945,16 +1981,16 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1962,7 +1998,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>59</v>
@@ -1973,13 +2009,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D67" s="2">
         <v>1167</v>
@@ -1987,10 +2023,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>60</v>
@@ -2004,7 +2040,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>60</v>
@@ -2018,7 +2054,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>63</v>
@@ -2032,7 +2068,7 @@
         <v>64</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>65</v>
@@ -2046,7 +2082,7 @@
         <v>66</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>67</v>
@@ -2060,7 +2096,7 @@
         <v>68</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>67</v>
@@ -2074,7 +2110,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>67</v>
@@ -2088,7 +2124,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>71</v>
@@ -2102,7 +2138,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>71</v>
@@ -2116,7 +2152,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>74</v>
@@ -2130,7 +2166,7 @@
         <v>73</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>74</v>
@@ -2141,13 +2177,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D79" s="2">
         <v>1</v>
@@ -2158,7 +2194,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>77</v>
@@ -2169,16 +2205,16 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2186,7 +2222,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>79</v>
@@ -2197,13 +2233,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D83" s="2">
         <v>918</v>
@@ -2214,7 +2250,7 @@
         <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>81</v>
@@ -2228,7 +2264,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>81</v>
@@ -2242,7 +2278,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>81</v>
@@ -2256,7 +2292,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>85</v>
@@ -2270,7 +2306,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>85</v>
@@ -2284,7 +2320,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>85</v>
@@ -2298,7 +2334,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>89</v>
@@ -2309,13 +2345,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D91" s="2">
         <v>1</v>
@@ -2323,27 +2359,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D93" s="2">
         <v>2</v>
@@ -2351,13 +2387,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D94" s="2">
         <v>1</v>
@@ -2365,30 +2401,30 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2398,13 +2434,33 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="5" priority="23">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D96">
+  <conditionalFormatting sqref="A2:D59 A63:D96">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:A62 C60:D62">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A60))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B60))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(B61))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(B62))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50F6853-F95C-492B-B959-B79DAAE7ECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58D952A-59FB-42D3-BF4A-2BF744CF75BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="183">
   <si>
     <t>S010004</t>
   </si>
@@ -332,15 +332,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>SACO DE LIXO INFECTANTE - 50LTS</t>
-  </si>
-  <si>
     <t>S010062</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - ÚNICA</t>
-  </si>
-  <si>
     <t>S150190</t>
   </si>
   <si>
@@ -446,12 +440,6 @@
     <t>S020118</t>
   </si>
   <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020008</t>
-  </si>
-  <si>
     <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
   </si>
   <si>
@@ -518,12 +506,6 @@
     <t>S010012</t>
   </si>
   <si>
-    <t>AVENTAL C/ MANGA - UNICA</t>
-  </si>
-  <si>
-    <t>S150204</t>
-  </si>
-  <si>
     <t>PRANCHETA A4 - UNICA</t>
   </si>
   <si>
@@ -594,6 +576,18 @@
   </si>
   <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>AVENTAL DESCARTAVEL TNT MANGA LONGA - 30G</t>
+  </si>
+  <si>
+    <t>S080016</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO INFECTANTE - 50L</t>
   </si>
 </sst>
 </file>
@@ -701,25 +695,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1069,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:D62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,27 +1061,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2">
         <v>54</v>
@@ -1113,24 +1089,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>92</v>
@@ -1141,10 +1117,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -1158,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -1172,7 +1148,7 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>91</v>
@@ -1183,44 +1159,44 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>117</v>
+        <v>180</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1208</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1228,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1242,7 +1218,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -1256,7 +1232,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1270,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1284,7 +1260,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1295,13 +1271,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D16" s="2">
         <v>58</v>
@@ -1312,7 +1288,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -1326,7 +1302,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -1337,16 +1313,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1354,7 +1330,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
@@ -1368,7 +1344,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
@@ -1379,10 +1355,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
@@ -1396,7 +1372,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -1410,7 +1386,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
@@ -1424,7 +1400,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
@@ -1438,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>94</v>
@@ -1452,7 +1428,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>26</v>
@@ -1463,10 +1439,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>26</v>
@@ -1477,13 +1453,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
@@ -1491,13 +1467,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D30" s="2">
         <v>1160</v>
@@ -1508,7 +1484,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>28</v>
@@ -1519,13 +1495,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D32" s="2">
         <v>1176</v>
@@ -1533,13 +1509,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D33" s="2">
         <v>1177</v>
@@ -1547,13 +1523,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2">
         <v>1178</v>
@@ -1561,13 +1537,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D35" s="2">
         <v>1179</v>
@@ -1578,7 +1554,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>30</v>
@@ -1589,24 +1565,24 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>31</v>
@@ -1620,7 +1596,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
@@ -1634,7 +1610,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>35</v>
@@ -1648,7 +1624,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>35</v>
@@ -1662,7 +1638,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>35</v>
@@ -1676,7 +1652,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>35</v>
@@ -1687,27 +1663,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D45" s="2">
         <v>750</v>
@@ -1715,13 +1691,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D46" s="2">
         <v>471</v>
@@ -1732,7 +1708,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>40</v>
@@ -1746,7 +1722,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>40</v>
@@ -1757,27 +1733,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -1785,10 +1761,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>42</v>
@@ -1802,7 +1778,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>44</v>
@@ -1816,7 +1792,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>46</v>
@@ -1830,7 +1806,7 @@
         <v>47</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>48</v>
@@ -1844,7 +1820,7 @@
         <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>96</v>
@@ -1855,16 +1831,16 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D56" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1872,7 +1848,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>50</v>
@@ -1886,7 +1862,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>52</v>
@@ -1900,7 +1876,7 @@
         <v>53</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>54</v>
@@ -1911,13 +1887,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D60" s="2">
         <v>33</v>
@@ -1925,13 +1901,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D61" s="2">
         <v>32</v>
@@ -1939,13 +1915,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D62" s="2">
         <v>31</v>
@@ -1956,7 +1932,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>56</v>
@@ -1967,10 +1943,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>57</v>
@@ -1981,16 +1957,16 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1998,7 +1974,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>59</v>
@@ -2009,13 +1985,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D67" s="2">
         <v>1167</v>
@@ -2023,10 +1999,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>60</v>
@@ -2040,7 +2016,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>60</v>
@@ -2054,7 +2030,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>63</v>
@@ -2068,7 +2044,7 @@
         <v>64</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>65</v>
@@ -2082,7 +2058,7 @@
         <v>66</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>67</v>
@@ -2096,7 +2072,7 @@
         <v>68</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>67</v>
@@ -2110,7 +2086,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>67</v>
@@ -2124,7 +2100,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>71</v>
@@ -2138,7 +2114,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>71</v>
@@ -2152,7 +2128,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>74</v>
@@ -2166,7 +2142,7 @@
         <v>73</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>74</v>
@@ -2177,13 +2153,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D79" s="2">
         <v>1</v>
@@ -2194,7 +2170,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>77</v>
@@ -2205,16 +2181,16 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2222,7 +2198,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>79</v>
@@ -2233,16 +2209,16 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D83" s="2">
-        <v>918</v>
+        <v>986</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2250,7 +2226,7 @@
         <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>81</v>
@@ -2264,7 +2240,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>81</v>
@@ -2278,7 +2254,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>81</v>
@@ -2292,7 +2268,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>85</v>
@@ -2306,7 +2282,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>85</v>
@@ -2320,7 +2296,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>85</v>
@@ -2334,7 +2310,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>89</v>
@@ -2345,13 +2321,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D91" s="2">
         <v>1</v>
@@ -2359,108 +2335,84 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>139</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="D93" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D94" s="2">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D96" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D96">
-      <sortCondition ref="A1:A96"/>
+  <autoFilter ref="A1:D95" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D95">
+      <sortCondition ref="A1:A95"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="5" priority="23">
+    <cfRule type="expression" dxfId="3" priority="28">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D59 A63:D96">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+  <conditionalFormatting sqref="A94:D95 B93:D93 A2:D82 A84:D92 B83:D83">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:A62 C60:D62">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A60))&gt;0</formula>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A93))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(B60))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(B61))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
+  <conditionalFormatting sqref="A83">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B62))&gt;0</formula>
+      <formula>LEN(TRIM(A83))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58D952A-59FB-42D3-BF4A-2BF744CF75BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57E7473-6B38-41DE-B62C-97680D27A2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -212,9 +212,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -554,9 +551,6 @@
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
-  </si>
-  <si>
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
@@ -588,6 +582,12 @@
   </si>
   <si>
     <t>SACO P/ LIXO INFECTANTE - 50L</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -695,16 +695,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1047,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,27 +1052,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D2" s="2">
         <v>54</v>
@@ -1089,27 +1080,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1117,10 +1108,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -1134,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -1145,13 +1136,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D7" s="2">
         <v>53</v>
@@ -1159,27 +1150,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D9" s="2">
         <v>1208</v>
@@ -1187,16 +1178,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1204,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1218,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -1232,7 +1223,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1246,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1260,7 +1251,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1271,13 +1262,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D16" s="2">
         <v>58</v>
@@ -1288,7 +1279,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -1302,7 +1293,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -1313,16 +1304,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1330,7 +1321,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
@@ -1344,7 +1335,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
@@ -1355,10 +1346,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
@@ -1372,7 +1363,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
@@ -1386,7 +1377,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
@@ -1400,7 +1391,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
@@ -1411,13 +1402,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D26" s="2">
         <v>904</v>
@@ -1428,7 +1419,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>26</v>
@@ -1439,10 +1430,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>26</v>
@@ -1453,13 +1444,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
@@ -1467,13 +1458,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D30" s="2">
         <v>1160</v>
@@ -1484,7 +1475,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>28</v>
@@ -1495,13 +1486,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" s="2">
         <v>1176</v>
@@ -1509,13 +1500,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D33" s="2">
         <v>1177</v>
@@ -1523,13 +1514,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" s="2">
         <v>1178</v>
@@ -1537,13 +1528,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D35" s="2">
         <v>1179</v>
@@ -1554,7 +1545,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>30</v>
@@ -1565,24 +1556,24 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>31</v>
@@ -1596,7 +1587,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
@@ -1610,7 +1601,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>35</v>
@@ -1624,7 +1615,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>35</v>
@@ -1638,7 +1629,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>35</v>
@@ -1652,7 +1643,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>35</v>
@@ -1663,27 +1654,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D45" s="2">
         <v>750</v>
@@ -1691,13 +1682,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D46" s="2">
         <v>471</v>
@@ -1708,7 +1699,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>40</v>
@@ -1722,7 +1713,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>40</v>
@@ -1733,27 +1724,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -1761,10 +1752,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>42</v>
@@ -1778,7 +1769,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>44</v>
@@ -1792,7 +1783,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>46</v>
@@ -1806,7 +1797,7 @@
         <v>47</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>48</v>
@@ -1817,13 +1808,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -1831,13 +1822,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="D56" s="2">
         <v>1164</v>
@@ -1848,7 +1839,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>50</v>
@@ -1862,7 +1853,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>52</v>
@@ -1876,7 +1867,7 @@
         <v>53</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>54</v>
@@ -1887,13 +1878,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="2">
         <v>33</v>
@@ -1901,13 +1892,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" s="2">
         <v>32</v>
@@ -1915,13 +1906,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D62" s="2">
         <v>31</v>
@@ -1932,7 +1923,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>56</v>
@@ -1943,41 +1934,41 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="D64" s="2">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D66" s="2">
         <v>211</v>
@@ -1985,13 +1976,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D67" s="2">
         <v>1167</v>
@@ -1999,13 +1990,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D68" s="2">
         <v>821</v>
@@ -2013,13 +2004,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D69" s="2">
         <v>819</v>
@@ -2027,13 +2018,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D70" s="2">
         <v>553</v>
@@ -2041,13 +2032,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D71" s="2">
         <v>72</v>
@@ -2055,13 +2046,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D72" s="2">
         <v>86</v>
@@ -2069,13 +2060,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D73" s="2">
         <v>87</v>
@@ -2083,13 +2074,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D74" s="2">
         <v>88</v>
@@ -2097,13 +2088,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D75" s="2">
         <v>55</v>
@@ -2111,13 +2102,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D76" s="2">
         <v>54</v>
@@ -2125,13 +2116,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D77" s="2">
         <v>994</v>
@@ -2139,13 +2130,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D78" s="2">
         <v>695</v>
@@ -2153,13 +2144,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D79" s="2">
         <v>1</v>
@@ -2167,13 +2158,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
@@ -2181,27 +2172,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D82" s="2">
         <v>107</v>
@@ -2209,13 +2200,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D83" s="2">
         <v>986</v>
@@ -2223,13 +2214,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D84" s="2">
         <v>170</v>
@@ -2237,13 +2228,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D85" s="2">
         <v>163</v>
@@ -2251,13 +2242,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D86" s="2">
         <v>799</v>
@@ -2265,13 +2256,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D87" s="2">
         <v>160</v>
@@ -2279,13 +2270,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D88" s="2">
         <v>569</v>
@@ -2293,13 +2284,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D89" s="2">
         <v>762</v>
@@ -2307,13 +2298,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D90" s="2">
         <v>211</v>
@@ -2321,13 +2312,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D91" s="2">
         <v>1</v>
@@ -2335,13 +2326,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="D92" s="2">
         <v>2</v>
@@ -2349,13 +2340,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D93" s="2">
         <v>1</v>
@@ -2363,30 +2354,30 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2396,23 +2387,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="28">
+    <cfRule type="expression" dxfId="2" priority="29">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A94:D95 B93:D93 A2:D82 A84:D92 B83:D83">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D63 A65:D95">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A93))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
+  <conditionalFormatting sqref="A64:D64">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A83))&gt;0</formula>
+      <formula>LEN(TRIM(A64))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57E7473-6B38-41DE-B62C-97680D27A2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B933AF8C-00A7-4F1C-BB95-E4B7224B2066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,17 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="178">
   <si>
     <t>S010004</t>
   </si>
   <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
-  </si>
-  <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
   </si>
   <si>
@@ -384,15 +378,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>BISCOITO - ROSQUINHA</t>
-  </si>
-  <si>
-    <t>S030006</t>
-  </si>
-  <si>
-    <t>831</t>
   </si>
   <si>
     <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
@@ -695,16 +680,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1036,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:D64"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,27 +1028,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2">
         <v>54</v>
@@ -1080,27 +1056,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1108,10 +1084,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -1122,100 +1098,100 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="2">
-        <v>53</v>
+        <v>110</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>173</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1208</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>1208</v>
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>117</v>
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1045</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>809</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2">
-        <v>1045</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,69 +1199,69 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
-        <v>20</v>
+        <v>114</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1293,97 +1269,97 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>114</v>
+        <v>15</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D24" s="2">
-        <v>1</v>
+        <v>904</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1391,223 +1367,223 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="2">
-        <v>52</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2">
-        <v>904</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="2">
-        <v>109</v>
+        <v>147</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="D28" s="2">
-        <v>100</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="D29" s="2">
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D30" s="2">
-        <v>1160</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="D31" s="2">
-        <v>103</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D32" s="2">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D33" s="2">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
-        <v>1178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1179</v>
+        <v>117</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D36" s="2">
-        <v>1</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>114</v>
+        <v>31</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
-        <v>1162</v>
+        <v>899</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="2">
-        <v>1</v>
+        <v>896</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,293 +1591,293 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="2">
-        <v>900</v>
+        <v>119</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="D43" s="2">
-        <v>898</v>
+        <v>750</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="D44" s="2">
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="D45" s="2">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="D46" s="2">
-        <v>471</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="2">
-        <v>166</v>
+        <v>121</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="D48" s="2">
-        <v>167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>114</v>
+        <v>40</v>
+      </c>
+      <c r="D49" s="2">
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="D50" s="2">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D52" s="2">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="D53" s="2">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="D54" s="2">
-        <v>1</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D55" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="D56" s="2">
-        <v>1164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D57" s="2">
-        <v>40</v>
+        <v>745</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="D58" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="D59" s="2">
-        <v>745</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D60" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="D61" s="2">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1909,153 +1885,153 @@
         <v>176</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D62" s="2">
-        <v>31</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" s="2">
-        <v>2</v>
+        <v>123</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="D64" s="2">
-        <v>1181</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1167</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D66" s="2">
-        <v>211</v>
+        <v>821</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="D67" s="2">
-        <v>1167</v>
+        <v>819</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D68" s="2">
-        <v>821</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D69" s="2">
-        <v>819</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D70" s="2">
-        <v>553</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D71" s="2">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D72" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2063,97 +2039,97 @@
         <v>67</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D73" s="2">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D74" s="2">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D75" s="2">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D76" s="2">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="D77" s="2">
-        <v>994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D78" s="2">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D79" s="2">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2161,27 +2137,27 @@
         <v>75</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D80" s="2">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
+      </c>
+      <c r="D81" s="2">
+        <v>986</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2195,35 +2171,35 @@
         <v>78</v>
       </c>
       <c r="D82" s="2">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D83" s="2">
-        <v>986</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D84" s="2">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2231,41 +2207,41 @@
         <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D85" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D86" s="2">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D87" s="2">
-        <v>160</v>
+        <v>762</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2273,52 +2249,52 @@
         <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D88" s="2">
-        <v>569</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D89" s="2">
-        <v>762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="D90" s="2">
-        <v>211</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="D91" s="2">
         <v>1</v>
@@ -2326,79 +2302,46 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D92" s="2">
-        <v>2</v>
+        <v>152</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D93" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D95" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D95">
-      <sortCondition ref="A1:A95"/>
+  <autoFilter ref="A1:D93" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">
+      <sortCondition ref="A1:A93"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="29">
+    <cfRule type="expression" dxfId="1" priority="29">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D63 A65:D95">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D93">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D64">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A64))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B933AF8C-00A7-4F1C-BB95-E4B7224B2066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E538A3-8381-4E12-82D0-98F43BBC2392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="176">
   <si>
     <t>S010004</t>
   </si>
@@ -234,12 +234,6 @@
   </si>
   <si>
     <t>S020025</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
   </si>
   <si>
     <t>PILHA - AA (PAR)</t>
@@ -1012,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,27 +1022,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2">
         <v>54</v>
@@ -1056,27 +1050,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1084,10 +1078,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -1098,13 +1092,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2">
         <v>53</v>
@@ -1112,27 +1106,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D8" s="2">
         <v>1208</v>
@@ -1143,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -1157,7 +1151,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -1171,7 +1165,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -1185,7 +1179,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -1199,7 +1193,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1210,13 +1204,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2">
         <v>58</v>
@@ -1227,7 +1221,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -1241,7 +1235,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -1252,16 +1246,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1269,7 +1263,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -1283,7 +1277,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
@@ -1294,10 +1288,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
@@ -1311,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -1325,7 +1319,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -1339,7 +1333,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
@@ -1350,13 +1344,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D24" s="2">
         <v>904</v>
@@ -1367,7 +1361,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
@@ -1378,10 +1372,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>24</v>
@@ -1392,13 +1386,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1406,13 +1400,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D28" s="2">
         <v>1160</v>
@@ -1423,7 +1417,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>26</v>
@@ -1434,13 +1428,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D30" s="2">
         <v>1176</v>
@@ -1448,13 +1442,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D31" s="2">
         <v>1177</v>
@@ -1462,13 +1456,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D32" s="2">
         <v>1178</v>
@@ -1476,13 +1470,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D33" s="2">
         <v>1179</v>
@@ -1493,7 +1487,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>28</v>
@@ -1504,24 +1498,24 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>29</v>
@@ -1535,7 +1529,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>31</v>
@@ -1549,7 +1543,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>33</v>
@@ -1563,7 +1557,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
@@ -1577,7 +1571,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>33</v>
@@ -1591,7 +1585,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
@@ -1602,27 +1596,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D43" s="2">
         <v>750</v>
@@ -1630,13 +1624,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D44" s="2">
         <v>471</v>
@@ -1647,7 +1641,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>38</v>
@@ -1661,7 +1655,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>38</v>
@@ -1672,27 +1666,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -1700,10 +1694,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>40</v>
@@ -1717,7 +1711,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>42</v>
@@ -1731,7 +1725,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>44</v>
@@ -1745,7 +1739,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>46</v>
@@ -1756,13 +1750,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
@@ -1770,13 +1764,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="2">
         <v>1164</v>
@@ -1787,7 +1781,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>48</v>
@@ -1801,7 +1795,7 @@
         <v>49</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>50</v>
@@ -1815,7 +1809,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>52</v>
@@ -1826,13 +1820,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="2">
         <v>33</v>
@@ -1840,13 +1834,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D59" s="2">
         <v>32</v>
@@ -1854,13 +1848,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D60" s="2">
         <v>31</v>
@@ -1871,7 +1865,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>54</v>
@@ -1882,13 +1876,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D62" s="2">
         <v>1181</v>
@@ -1896,16 +1890,16 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1913,7 +1907,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>56</v>
@@ -1924,13 +1918,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D65" s="2">
         <v>1167</v>
@@ -1938,10 +1932,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>57</v>
@@ -1955,7 +1949,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>57</v>
@@ -1969,7 +1963,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>60</v>
@@ -1983,7 +1977,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>62</v>
@@ -1997,7 +1991,7 @@
         <v>63</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>64</v>
@@ -2011,97 +2005,97 @@
         <v>65</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D71" s="2">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D72" s="2">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D73" s="2">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D74" s="2">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="D75" s="2">
-        <v>994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D76" s="2">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D77" s="2">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2109,27 +2103,27 @@
         <v>73</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D78" s="2">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
+      </c>
+      <c r="D79" s="2">
+        <v>986</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2137,41 +2131,41 @@
         <v>75</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D80" s="2">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D81" s="2">
-        <v>986</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D82" s="2">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2179,41 +2173,41 @@
         <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D83" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D84" s="2">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D85" s="2">
-        <v>160</v>
+        <v>762</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2221,52 +2215,52 @@
         <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D86" s="2">
-        <v>569</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="D87" s="2">
-        <v>762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="D88" s="2">
-        <v>211</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="D89" s="2">
         <v>1</v>
@@ -2274,64 +2268,36 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D90" s="2">
-        <v>2</v>
+        <v>150</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D91" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D93" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">
-      <sortCondition ref="A1:A93"/>
+  <autoFilter ref="A1:D91" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
+      <sortCondition ref="A1:A91"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2339,7 +2305,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D93">
+  <conditionalFormatting sqref="A2:D91">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E538A3-8381-4E12-82D0-98F43BBC2392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B91E2B-700F-4226-A236-2BB5D049FAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="175">
   <si>
     <t>S010004</t>
   </si>
@@ -218,9 +218,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -458,9 +455,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PC C/100</t>
   </si>
   <si>
@@ -567,6 +561,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
   </si>
 </sst>
 </file>
@@ -674,7 +671,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1009,7 +1015,7 @@
   <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:XFD71"/>
+      <selection activeCell="A68" sqref="A68:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,27 +1028,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D2" s="2">
         <v>54</v>
@@ -1050,27 +1056,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1078,10 +1084,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -1092,13 +1098,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D6" s="2">
         <v>53</v>
@@ -1106,27 +1112,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D8" s="2">
         <v>1208</v>
@@ -1137,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -1151,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -1165,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -1179,7 +1185,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -1193,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1204,13 +1210,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D14" s="2">
         <v>58</v>
@@ -1221,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -1235,7 +1241,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -1246,16 +1252,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -1277,7 +1283,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
@@ -1288,10 +1294,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
@@ -1305,7 +1311,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -1319,7 +1325,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -1333,7 +1339,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
@@ -1344,13 +1350,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D24" s="2">
         <v>904</v>
@@ -1361,7 +1367,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
@@ -1372,10 +1378,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>24</v>
@@ -1386,13 +1392,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1400,13 +1406,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D28" s="2">
         <v>1160</v>
@@ -1417,7 +1423,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>26</v>
@@ -1428,13 +1434,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" s="2">
         <v>1176</v>
@@ -1442,13 +1448,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="2">
         <v>1177</v>
@@ -1456,13 +1462,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32" s="2">
         <v>1178</v>
@@ -1470,13 +1476,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" s="2">
         <v>1179</v>
@@ -1487,7 +1493,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>28</v>
@@ -1498,24 +1504,24 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>29</v>
@@ -1529,7 +1535,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>31</v>
@@ -1543,7 +1549,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>33</v>
@@ -1557,7 +1563,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
@@ -1571,7 +1577,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>33</v>
@@ -1585,7 +1591,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
@@ -1596,27 +1602,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D43" s="2">
         <v>750</v>
@@ -1624,13 +1630,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D44" s="2">
         <v>471</v>
@@ -1641,7 +1647,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>38</v>
@@ -1655,7 +1661,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>38</v>
@@ -1666,27 +1672,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -1694,10 +1700,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>40</v>
@@ -1711,7 +1717,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>42</v>
@@ -1725,7 +1731,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>44</v>
@@ -1739,7 +1745,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>46</v>
@@ -1750,13 +1756,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
@@ -1764,13 +1770,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="2">
         <v>1164</v>
@@ -1781,7 +1787,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>48</v>
@@ -1795,7 +1801,7 @@
         <v>49</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>50</v>
@@ -1809,7 +1815,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>52</v>
@@ -1820,13 +1826,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="2">
         <v>33</v>
@@ -1834,13 +1840,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D59" s="2">
         <v>32</v>
@@ -1848,13 +1854,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D60" s="2">
         <v>31</v>
@@ -1865,7 +1871,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>54</v>
@@ -1876,13 +1882,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D62" s="2">
         <v>1181</v>
@@ -1890,16 +1896,16 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1907,7 +1913,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>56</v>
@@ -1918,13 +1924,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D65" s="2">
         <v>1167</v>
@@ -1932,10 +1938,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>57</v>
@@ -1949,7 +1955,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>57</v>
@@ -1960,27 +1966,27 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D68" s="2">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D69" s="2">
         <v>72</v>
@@ -1988,13 +1994,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D70" s="2">
         <v>86</v>
@@ -2002,13 +2008,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D71" s="2">
         <v>55</v>
@@ -2016,13 +2022,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D72" s="2">
         <v>54</v>
@@ -2030,13 +2036,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D73" s="2">
         <v>994</v>
@@ -2044,13 +2050,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D74" s="2">
         <v>695</v>
@@ -2058,13 +2064,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D75" s="2">
         <v>1</v>
@@ -2072,13 +2078,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D76" s="2">
         <v>1</v>
@@ -2086,27 +2092,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D78" s="2">
         <v>107</v>
@@ -2114,13 +2120,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="2">
         <v>986</v>
@@ -2128,13 +2134,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D80" s="2">
         <v>170</v>
@@ -2142,13 +2148,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D81" s="2">
         <v>163</v>
@@ -2156,13 +2162,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D82" s="2">
         <v>799</v>
@@ -2170,13 +2176,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D83" s="2">
         <v>160</v>
@@ -2184,13 +2190,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D84" s="2">
         <v>569</v>
@@ -2198,13 +2204,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D85" s="2">
         <v>762</v>
@@ -2212,13 +2218,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D86" s="2">
         <v>211</v>
@@ -2226,13 +2232,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D87" s="2">
         <v>1</v>
@@ -2240,13 +2246,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="D88" s="2">
         <v>2</v>
@@ -2254,13 +2260,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D89" s="2">
         <v>1</v>
@@ -2268,30 +2274,30 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2301,13 +2307,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="29">
+    <cfRule type="expression" dxfId="2" priority="30">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D91">
+  <conditionalFormatting sqref="A2:D67 A69:D91">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:D68">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A68))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B91E2B-700F-4226-A236-2BB5D049FAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCEBFE7-EBDC-4440-BC3D-3E1B9564AF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -170,9 +170,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -564,6 +561,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:D68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,27 +1028,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D2" s="2">
         <v>54</v>
@@ -1056,27 +1056,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1084,10 +1084,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -1098,13 +1098,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D6" s="2">
         <v>53</v>
@@ -1112,27 +1112,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="D8" s="2">
         <v>1208</v>
@@ -1143,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -1157,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -1171,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -1185,7 +1185,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -1199,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D14" s="2">
         <v>58</v>
@@ -1227,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -1241,7 +1241,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -1252,16 +1252,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -1283,7 +1283,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
@@ -1294,10 +1294,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
@@ -1311,7 +1311,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -1325,7 +1325,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -1339,7 +1339,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
@@ -1350,13 +1350,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D24" s="2">
         <v>904</v>
@@ -1367,7 +1367,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>24</v>
@@ -1392,13 +1392,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1406,13 +1406,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D28" s="2">
         <v>1160</v>
@@ -1423,7 +1423,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>26</v>
@@ -1434,13 +1434,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" s="2">
         <v>1176</v>
@@ -1448,13 +1448,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" s="2">
         <v>1177</v>
@@ -1462,13 +1462,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32" s="2">
         <v>1178</v>
@@ -1476,13 +1476,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D33" s="2">
         <v>1179</v>
@@ -1493,7 +1493,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>28</v>
@@ -1504,24 +1504,24 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>29</v>
@@ -1535,7 +1535,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>31</v>
@@ -1549,7 +1549,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>33</v>
@@ -1563,7 +1563,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
@@ -1577,7 +1577,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>33</v>
@@ -1591,7 +1591,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
@@ -1602,27 +1602,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="D43" s="2">
         <v>750</v>
@@ -1630,13 +1630,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D44" s="2">
         <v>471</v>
@@ -1647,7 +1647,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>38</v>
@@ -1661,7 +1661,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>38</v>
@@ -1672,27 +1672,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>40</v>
@@ -1717,7 +1717,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>42</v>
@@ -1728,27 +1728,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D51" s="2">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
@@ -1770,13 +1770,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="D54" s="2">
         <v>1164</v>
@@ -1784,13 +1784,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D55" s="2">
         <v>40</v>
@@ -1798,13 +1798,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -1812,13 +1812,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D57" s="2">
         <v>745</v>
@@ -1826,13 +1826,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="D58" s="2">
         <v>33</v>
@@ -1840,13 +1840,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D59" s="2">
         <v>32</v>
@@ -1854,13 +1854,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D60" s="2">
         <v>31</v>
@@ -1868,13 +1868,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D61" s="2">
         <v>2</v>
@@ -1882,13 +1882,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D62" s="2">
         <v>1181</v>
@@ -1896,27 +1896,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D64" s="2">
         <v>211</v>
@@ -1924,13 +1924,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D65" s="2">
         <v>1167</v>
@@ -1938,13 +1938,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D66" s="2">
         <v>821</v>
@@ -1952,13 +1952,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D67" s="2">
         <v>819</v>
@@ -1966,13 +1966,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D68" s="2">
         <v>1394</v>
@@ -1980,13 +1980,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D69" s="2">
         <v>72</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D70" s="2">
         <v>86</v>
@@ -2008,13 +2008,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D71" s="2">
         <v>55</v>
@@ -2022,13 +2022,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D72" s="2">
         <v>54</v>
@@ -2036,13 +2036,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D73" s="2">
         <v>994</v>
@@ -2050,13 +2050,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D74" s="2">
         <v>695</v>
@@ -2064,13 +2064,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="D75" s="2">
         <v>1</v>
@@ -2078,13 +2078,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D76" s="2">
         <v>1</v>
@@ -2092,27 +2092,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D78" s="2">
         <v>107</v>
@@ -2120,13 +2120,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D79" s="2">
         <v>986</v>
@@ -2134,13 +2134,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D80" s="2">
         <v>170</v>
@@ -2148,13 +2148,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D81" s="2">
         <v>163</v>
@@ -2162,13 +2162,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D82" s="2">
         <v>799</v>
@@ -2176,13 +2176,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D83" s="2">
         <v>160</v>
@@ -2190,13 +2190,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D84" s="2">
         <v>569</v>
@@ -2204,13 +2204,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D85" s="2">
         <v>762</v>
@@ -2218,13 +2218,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D86" s="2">
         <v>211</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D87" s="2">
         <v>1</v>
@@ -2246,13 +2246,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="D88" s="2">
         <v>2</v>
@@ -2260,13 +2260,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D89" s="2">
         <v>1</v>
@@ -2274,30 +2274,30 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2307,18 +2307,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="30">
+    <cfRule type="expression" dxfId="2" priority="31">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D67 A69:D91">
+  <conditionalFormatting sqref="A2:D50 A52:D91">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:D68">
+  <conditionalFormatting sqref="A51:D51">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A68))&gt;0</formula>
+      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCEBFE7-EBDC-4440-BC3D-3E1B9564AF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9F5FD5-C210-4476-88CB-F29EBDF14897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="172">
   <si>
     <t>S010004</t>
   </si>
@@ -77,9 +77,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -92,15 +89,9 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
-    <t>CLIPE 8/0 COM 25UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020090</t>
   </si>
   <si>
@@ -122,18 +113,12 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -173,9 +158,6 @@
     <t>S020057</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -185,9 +167,6 @@
     <t>S020062</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -248,9 +227,6 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
@@ -305,9 +281,6 @@
     <t>S010009</t>
   </si>
   <si>
-    <t>LANCETAS - UNICA</t>
-  </si>
-  <si>
     <t>S150191</t>
   </si>
   <si>
@@ -353,66 +326,33 @@
     <t>S030004</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
     <t>ALMOFADA P/ CARIMBO N°03 - AZUL - AZUL</t>
   </si>
   <si>
     <t>S020071</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
-    <t>S150295</t>
-  </si>
-  <si>
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
   </si>
   <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110018</t>
   </si>
   <si>
-    <t>EXTRATOR DE GRAMPOS - UNICA</t>
-  </si>
-  <si>
     <t>S020048</t>
   </si>
   <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
-    <t>MEXEDOR PARA CAFE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S150037</t>
   </si>
   <si>
     <t>S010038</t>
   </si>
   <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
@@ -422,18 +362,12 @@
     <t>S020007</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>TINTA P/ CARIMBO 42 ML - AZUL - AZUL</t>
   </si>
   <si>
     <t>S020009</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
     <t>S050008</t>
   </si>
   <si>
@@ -464,18 +398,12 @@
     <t>PAPEL A4 - AMARELO 500FLS - AMARELO 500FLS</t>
   </si>
   <si>
-    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
-  </si>
-  <si>
     <t>S150189</t>
   </si>
   <si>
     <t>S010012</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
@@ -548,9 +476,6 @@
     <t>S080016</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
-  </si>
-  <si>
     <t>SACO P/ LIXO INFECTANTE - 50L</t>
   </si>
   <si>
@@ -564,6 +489,72 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>CLIPE 8/0 - 25UND</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - 500 UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESPANADOR - PENA</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - METALICO</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LANCETAS - 100UN - 100UN</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>MEXEDOR PARA CAFE - 500 UND</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - ACCU-CHEK</t>
   </si>
 </sst>
 </file>
@@ -671,16 +662,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1014,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:D51"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,27 +1010,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2">
         <v>54</v>
@@ -1056,27 +1038,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
+      </c>
+      <c r="D3" s="5">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1084,10 +1066,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -1098,13 +1080,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2">
         <v>53</v>
@@ -1112,27 +1094,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D8" s="2">
         <v>1208</v>
@@ -1143,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -1157,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -1171,7 +1153,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -1185,7 +1167,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -1199,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1210,13 +1192,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2">
         <v>58</v>
@@ -1227,7 +1209,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -1238,41 +1220,41 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>108</v>
+        <v>152</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1184</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D18" s="2">
         <v>2</v>
@@ -1280,13 +1262,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
@@ -1294,13 +1276,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2">
         <v>4</v>
@@ -1308,41 +1290,41 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2">
-        <v>1</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2">
         <v>52</v>
@@ -1350,13 +1332,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2">
         <v>904</v>
@@ -1364,13 +1346,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2">
         <v>109</v>
@@ -1378,13 +1360,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2">
         <v>100</v>
@@ -1392,27 +1374,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="D27" s="5">
-        <v>1</v>
+        <v>874</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D28" s="2">
         <v>1160</v>
@@ -1420,13 +1402,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D29" s="2">
         <v>103</v>
@@ -1434,13 +1416,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D30" s="2">
         <v>1176</v>
@@ -1448,13 +1430,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D31" s="2">
         <v>1177</v>
@@ -1462,13 +1444,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D32" s="2">
         <v>1178</v>
@@ -1476,13 +1458,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D33" s="2">
         <v>1179</v>
@@ -1490,41 +1472,41 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1454</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2">
         <v>1162</v>
@@ -1532,27 +1514,27 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>899</v>
@@ -1560,13 +1542,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>896</v>
@@ -1574,13 +1556,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>900</v>
@@ -1588,13 +1570,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>898</v>
@@ -1602,27 +1584,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1456</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="D43" s="2">
         <v>750</v>
@@ -1630,13 +1612,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D44" s="2">
         <v>471</v>
@@ -1644,13 +1626,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
         <v>166</v>
@@ -1658,13 +1640,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
         <v>167</v>
@@ -1672,41 +1654,41 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="D47" s="5">
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D48" s="2">
-        <v>1</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2">
         <v>448</v>
@@ -1714,13 +1696,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D50" s="2">
         <v>80</v>
@@ -1728,13 +1710,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D51" s="2">
         <v>1396</v>
@@ -1742,41 +1724,41 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D52" s="2">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D54" s="2">
         <v>1164</v>
@@ -1784,13 +1766,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D55" s="2">
         <v>40</v>
@@ -1798,27 +1780,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D56" s="2">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D57" s="2">
         <v>745</v>
@@ -1826,13 +1808,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D58" s="2">
         <v>33</v>
@@ -1840,13 +1822,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D59" s="2">
         <v>32</v>
@@ -1854,13 +1836,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D60" s="2">
         <v>31</v>
@@ -1868,13 +1850,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D61" s="2">
         <v>2</v>
@@ -1882,13 +1864,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D62" s="2">
         <v>1181</v>
@@ -1896,27 +1878,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="D63" s="5">
+        <v>874</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D64" s="2">
         <v>211</v>
@@ -1924,13 +1906,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D65" s="2">
         <v>1167</v>
@@ -1938,13 +1920,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D66" s="2">
         <v>821</v>
@@ -1952,13 +1934,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D67" s="2">
         <v>819</v>
@@ -1966,13 +1948,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D68" s="2">
         <v>1394</v>
@@ -1980,13 +1962,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D69" s="2">
         <v>72</v>
@@ -1994,13 +1976,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D70" s="2">
         <v>86</v>
@@ -2008,13 +1990,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D71" s="2">
         <v>55</v>
@@ -2022,13 +2004,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D72" s="2">
         <v>54</v>
@@ -2036,13 +2018,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D73" s="2">
         <v>994</v>
@@ -2050,13 +2032,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D74" s="2">
         <v>695</v>
@@ -2064,55 +2046,55 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="D75" s="2">
-        <v>1</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D76" s="2">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1030</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D78" s="2">
         <v>107</v>
@@ -2120,13 +2102,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D79" s="2">
         <v>986</v>
@@ -2134,13 +2116,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D80" s="2">
         <v>170</v>
@@ -2148,13 +2130,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D81" s="2">
         <v>163</v>
@@ -2162,13 +2144,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D82" s="2">
         <v>799</v>
@@ -2176,13 +2158,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D83" s="2">
         <v>160</v>
@@ -2190,13 +2172,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D84" s="2">
         <v>569</v>
@@ -2204,13 +2186,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D85" s="2">
         <v>762</v>
@@ -2218,13 +2200,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D86" s="2">
         <v>211</v>
@@ -2232,27 +2214,27 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="D87" s="2">
-        <v>1</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D88" s="2">
         <v>2</v>
@@ -2260,65 +2242,55 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D89" s="2">
-        <v>1</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="D91" s="5">
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D91" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
-      <sortCondition ref="A1:A91"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="1" priority="31">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D50 A52:D91">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D91">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:D51">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9F5FD5-C210-4476-88CB-F29EBDF14897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B67E3E-A7EE-4951-AEE9-6B7C77B3C0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="174">
   <si>
     <t>S010004</t>
   </si>
@@ -555,6 +555,12 @@
   </si>
   <si>
     <t>TIRA P/ TESTE DE GLICEMIA - ACCU-CHEK</t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -662,7 +668,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -994,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,105 +1739,105 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="D52" s="2">
-        <v>1416</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>124</v>
+        <v>39</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1416</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1164</v>
+        <v>80</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="D55" s="2">
-        <v>40</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D56" s="2">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D57" s="2">
-        <v>745</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D58" s="2">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>111</v>
@@ -1831,12 +1846,12 @@
         <v>140</v>
       </c>
       <c r="D59" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>111</v>
@@ -1845,96 +1860,96 @@
         <v>140</v>
       </c>
       <c r="D60" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="D61" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="D62" s="2">
-        <v>1181</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" s="5">
-        <v>874</v>
+        <v>147</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1181</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="2">
-        <v>211</v>
+        <v>101</v>
+      </c>
+      <c r="D64" s="5">
+        <v>874</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="D65" s="2">
-        <v>1167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="D66" s="2">
-        <v>821</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>114</v>
@@ -1943,68 +1958,68 @@
         <v>49</v>
       </c>
       <c r="D67" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D68" s="2">
-        <v>1394</v>
+        <v>819</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D69" s="2">
-        <v>72</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D70" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D71" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>117</v>
@@ -2013,26 +2028,26 @@
         <v>57</v>
       </c>
       <c r="D72" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D73" s="2">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>111</v>
@@ -2041,110 +2056,110 @@
         <v>60</v>
       </c>
       <c r="D74" s="2">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="D75" s="2">
-        <v>1457</v>
+        <v>695</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="D76" s="2">
-        <v>1182</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D77" s="5">
-        <v>1030</v>
+        <v>62</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1182</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D78" s="2">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1030</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D79" s="2">
-        <v>986</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D80" s="2">
-        <v>170</v>
+        <v>986</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D81" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>111</v>
@@ -2153,40 +2168,40 @@
         <v>66</v>
       </c>
       <c r="D82" s="2">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D83" s="2">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D84" s="2">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>116</v>
@@ -2195,102 +2210,121 @@
         <v>70</v>
       </c>
       <c r="D85" s="2">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D86" s="2">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="D87" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D88" s="2">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D89" s="2">
-        <v>1417</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>82</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1417</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C91" s="2" t="s">
+      <c r="B92" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D92" s="5">
         <v>1458</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="31">
+    <cfRule type="expression" dxfId="2" priority="32">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D91">
+  <conditionalFormatting sqref="A2:D51 A53:D92">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:D52">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A52))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B67E3E-A7EE-4951-AEE9-6B7C77B3C0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FE41F8-EE46-44DA-89D3-17E2032C3ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -395,9 +395,6 @@
     <t>PAR</t>
   </si>
   <si>
-    <t>PAPEL A4 - AMARELO 500FLS - AMARELO 500FLS</t>
-  </si>
-  <si>
     <t>S150189</t>
   </si>
   <si>
@@ -561,6 +558,9 @@
   </si>
   <si>
     <t>S050011</t>
+  </si>
+  <si>
+    <t>PAPEL A4 - AMARELO 500FLS - AMARELO 100FLS</t>
   </si>
 </sst>
 </file>
@@ -668,16 +668,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1011,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1058,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>112</v>
@@ -1081,7 +1072,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>111</v>
@@ -1123,13 +1114,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="2">
         <v>1208</v>
@@ -1235,7 +1226,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>111</v>
@@ -1249,13 +1240,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D17" s="5">
         <v>1184</v>
@@ -1305,7 +1296,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>112</v>
@@ -1314,12 +1305,12 @@
         <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>112</v>
@@ -1389,13 +1380,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" s="5">
         <v>874</v>
@@ -1403,13 +1394,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" s="2">
         <v>1160</v>
@@ -1431,7 +1422,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>111</v>
@@ -1445,7 +1436,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>111</v>
@@ -1459,7 +1450,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>111</v>
@@ -1473,7 +1464,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>111</v>
@@ -1487,7 +1478,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>111</v>
@@ -1501,7 +1492,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>111</v>
@@ -1515,7 +1506,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>111</v>
@@ -1529,7 +1520,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>111</v>
@@ -1599,7 +1590,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>111</v>
@@ -1613,13 +1604,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D43" s="2">
         <v>750</v>
@@ -1669,7 +1660,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>111</v>
@@ -1683,7 +1674,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>111</v>
@@ -1697,7 +1688,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
@@ -1725,7 +1716,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>112</v>
@@ -1739,13 +1730,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D52" s="2">
         <v>116</v>
@@ -1753,7 +1744,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>111</v>
@@ -1767,7 +1758,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>112</v>
@@ -1776,18 +1767,18 @@
         <v>80</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="D55" s="2">
         <v>1164</v>
@@ -1809,7 +1800,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>111</v>
@@ -1837,13 +1828,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D59" s="2">
         <v>33</v>
@@ -1851,13 +1842,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D60" s="2">
         <v>32</v>
@@ -1865,13 +1856,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D61" s="2">
         <v>31</v>
@@ -1893,13 +1884,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D63" s="2">
         <v>1181</v>
@@ -1907,7 +1898,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>111</v>
@@ -1935,7 +1926,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>111</v>
@@ -1949,7 +1940,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>114</v>
@@ -1958,7 +1949,7 @@
         <v>49</v>
       </c>
       <c r="D67" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1977,7 +1968,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>114</v>
@@ -2075,13 +2066,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D76" s="2">
         <v>1457</v>
@@ -2089,7 +2080,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>111</v>
@@ -2103,7 +2094,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>111</v>
@@ -2131,7 +2122,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>114</v>
@@ -2243,7 +2234,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>111</v>
@@ -2271,7 +2262,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>112</v>
@@ -2285,21 +2276,21 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>111</v>
@@ -2313,18 +2304,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="32">
+    <cfRule type="expression" dxfId="1" priority="32">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D51 A53:D92">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D92">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:D52">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A52))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FE41F8-EE46-44DA-89D3-17E2032C3ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEDA0D4-BE9A-461B-B0DF-884438C0FC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -560,7 +560,7 @@
     <t>S050011</t>
   </si>
   <si>
-    <t>PAPEL A4 - AMARELO 500FLS - AMARELO 100FLS</t>
+    <t>PAPEL A4 - AMARELO 100FLS</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEDA0D4-BE9A-461B-B0DF-884438C0FC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FEF36B-6C57-45E9-89B6-6D68389D6C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FEF36B-6C57-45E9-89B6-6D68389D6C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1623E4B-CE2C-4CB9-83B1-3F52011A518F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -452,9 +452,6 @@
     <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
   </si>
   <si>
-    <t>AGULHA 12X40MM - 100UN</t>
-  </si>
-  <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
   </si>
   <si>
@@ -561,6 +558,9 @@
   </si>
   <si>
     <t>PAPEL A4 - AMARELO 100FLS</t>
+  </si>
+  <si>
+    <t>AGULHA IM - CALIBRE 40X1,20MM</t>
   </si>
 </sst>
 </file>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>112</v>
@@ -1067,7 +1067,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="5">
-        <v>0.5</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,13 +1114,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="2">
         <v>1208</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>111</v>
@@ -1240,13 +1240,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="D17" s="5">
         <v>1184</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>112</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>112</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>111</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>111</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>111</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>111</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>111</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>111</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>111</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>112</v>
@@ -1730,13 +1730,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="D52" s="2">
         <v>116</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>111</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>112</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>111</v>
@@ -1828,13 +1828,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="D59" s="2">
         <v>33</v>
@@ -1842,13 +1842,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D60" s="2">
         <v>32</v>
@@ -1856,13 +1856,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D61" s="2">
         <v>31</v>
@@ -1884,13 +1884,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" s="2">
         <v>1181</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>111</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>114</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>114</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>111</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>111</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>111</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>114</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>111</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>112</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>111</v>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1623E4B-CE2C-4CB9-83B1-3F52011A518F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA04CCA-5524-45F4-8E85-8FC3526F101C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -668,7 +668,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1003,7 +1012,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,7 +1440,7 @@
         <v>105</v>
       </c>
       <c r="D30" s="2">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1445,7 +1454,7 @@
         <v>105</v>
       </c>
       <c r="D31" s="2">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1459,7 +1468,7 @@
         <v>105</v>
       </c>
       <c r="D32" s="2">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1473,7 +1482,7 @@
         <v>105</v>
       </c>
       <c r="D33" s="2">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2304,13 +2313,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="32">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D92">
+  <conditionalFormatting sqref="A2:D29 A34:D92">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:D33">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA04CCA-5524-45F4-8E85-8FC3526F101C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6812B89C-EE78-4F46-A8D2-19C52161D95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -548,9 +548,6 @@
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - ACCU-CHEK</t>
-  </si>
-  <si>
     <t>ISOPOR - 3L - 3L</t>
   </si>
   <si>
@@ -561,6 +558,9 @@
   </si>
   <si>
     <t>AGULHA IM - CALIBRE 40X1,20MM</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - ON CALL</t>
   </si>
 </sst>
 </file>
@@ -668,16 +668,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1011,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1058,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>112</v>
@@ -1739,13 +1730,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="D52" s="2">
         <v>116</v>
@@ -1949,7 +1940,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>114</v>
@@ -2271,7 +2262,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>112</v>
@@ -2280,7 +2271,7 @@
         <v>82</v>
       </c>
       <c r="D90" s="2">
-        <v>1417</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2313,18 +2304,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="1" priority="33">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D29 A34:D92">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D92">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:D33">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6812B89C-EE78-4F46-A8D2-19C52161D95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3CC5EB-8B82-4AF3-864D-E2D64A98EBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,7 +2271,7 @@
         <v>82</v>
       </c>
       <c r="D90" s="2">
-        <v>1396</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3CC5EB-8B82-4AF3-864D-E2D64A98EBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4E0E35-13A7-4CA9-8716-3BAAE75172E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="175">
   <si>
     <t>S010004</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>TIRA P/ TESTE DE GLICEMIA - ON CALL</t>
+  </si>
+  <si>
+    <t>AGULHA IM - CALIBRE 0,6X25MM</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C2B9D-6D53-4CED-B942-EFF830725A03}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,119 +1075,119 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>105</v>
+        <v>77</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1443</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>53</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2</v>
+        <v>76</v>
+      </c>
+      <c r="D7" s="2">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1208</v>
+        <v>96</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2">
-        <v>809</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
-        <v>1045</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>103</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>111</v>
@@ -1193,82 +1196,82 @@
         <v>8</v>
       </c>
       <c r="D13" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2">
-        <v>1453</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1184</v>
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1453</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
+        <v>150</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1184</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>111</v>
@@ -1277,12 +1280,12 @@
         <v>14</v>
       </c>
       <c r="D19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>111</v>
@@ -1291,152 +1294,152 @@
         <v>14</v>
       </c>
       <c r="D20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>123</v>
+        <v>14</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1444</v>
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2">
-        <v>52</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2">
-        <v>904</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2">
-        <v>109</v>
+        <v>904</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="2">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="5">
-        <v>874</v>
+        <v>21</v>
+      </c>
+      <c r="D27" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1160</v>
+        <v>118</v>
+      </c>
+      <c r="D28" s="5">
+        <v>874</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="D29" s="2">
-        <v>103</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="D30" s="2">
-        <v>1175</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>111</v>
@@ -1445,12 +1448,12 @@
         <v>105</v>
       </c>
       <c r="D31" s="2">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>111</v>
@@ -1459,12 +1462,12 @@
         <v>105</v>
       </c>
       <c r="D32" s="2">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>111</v>
@@ -1473,82 +1476,82 @@
         <v>105</v>
       </c>
       <c r="D33" s="2">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="D34" s="2">
-        <v>1436</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1454</v>
+        <v>24</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1436</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1162</v>
+        <v>98</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1454</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2">
-        <v>1455</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2">
-        <v>899</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>111</v>
@@ -1557,12 +1560,12 @@
         <v>28</v>
       </c>
       <c r="D39" s="2">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>111</v>
@@ -1571,12 +1574,12 @@
         <v>28</v>
       </c>
       <c r="D40" s="2">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>111</v>
@@ -1585,68 +1588,68 @@
         <v>28</v>
       </c>
       <c r="D41" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1456</v>
+        <v>28</v>
+      </c>
+      <c r="D42" s="2">
+        <v>898</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="2">
-        <v>750</v>
+        <v>99</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1456</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D44" s="2">
-        <v>471</v>
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="D45" s="2">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>111</v>
@@ -1655,194 +1658,194 @@
         <v>33</v>
       </c>
       <c r="D46" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="5">
-        <v>272</v>
+        <v>33</v>
+      </c>
+      <c r="D47" s="2">
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1157</v>
+        <v>100</v>
+      </c>
+      <c r="D48" s="5">
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="D49" s="2">
-        <v>448</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2">
-        <v>80</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D51" s="2">
-        <v>1396</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="D52" s="2">
-        <v>116</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="D53" s="2">
-        <v>1416</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>123</v>
+        <v>39</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1416</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1164</v>
+        <v>80</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="D56" s="2">
-        <v>40</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D57" s="2">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D58" s="2">
-        <v>745</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="D59" s="2">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>111</v>
@@ -1851,12 +1854,12 @@
         <v>138</v>
       </c>
       <c r="D60" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>111</v>
@@ -1865,96 +1868,96 @@
         <v>138</v>
       </c>
       <c r="D61" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="D62" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="D63" s="2">
-        <v>1181</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" s="5">
-        <v>874</v>
+        <v>145</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1181</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="2">
-        <v>211</v>
+        <v>101</v>
+      </c>
+      <c r="D65" s="5">
+        <v>874</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="D66" s="2">
-        <v>1167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="D67" s="2">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>114</v>
@@ -1963,68 +1966,68 @@
         <v>49</v>
       </c>
       <c r="D68" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D69" s="2">
-        <v>1394</v>
+        <v>819</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D70" s="2">
-        <v>72</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D71" s="2">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D72" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>117</v>
@@ -2033,26 +2036,26 @@
         <v>57</v>
       </c>
       <c r="D73" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D74" s="2">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>111</v>
@@ -2061,110 +2064,110 @@
         <v>60</v>
       </c>
       <c r="D75" s="2">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D76" s="2">
-        <v>1457</v>
+        <v>695</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="D77" s="2">
-        <v>1182</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D78" s="5">
-        <v>1030</v>
+        <v>62</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1182</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D79" s="2">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1030</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D80" s="2">
-        <v>986</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D81" s="2">
-        <v>170</v>
+        <v>986</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D82" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>111</v>
@@ -2173,40 +2176,40 @@
         <v>66</v>
       </c>
       <c r="D83" s="2">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D84" s="2">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D85" s="2">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>116</v>
@@ -2215,90 +2218,104 @@
         <v>70</v>
       </c>
       <c r="D86" s="2">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D87" s="2">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="D88" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D89" s="2">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D90" s="2">
-        <v>1418</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>82</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1418</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C92" s="2" t="s">
+      <c r="B93" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D93" s="5">
         <v>1458</v>
       </c>
     </row>
@@ -2308,7 +2325,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D92">
+  <conditionalFormatting sqref="A2:D93">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/PA_csoservi_cservico_csala.xlsx
+++ b/pages/PA_csoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4E0E35-13A7-4CA9-8716-3BAAE75172E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ED2948-3ADB-4F25-9394-442177738AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965BE559-36E4-44D8-A032-2DF10103EF5A}"/>
   </bookViews>
@@ -302,15 +302,9 @@
     <t>ACUCAR - 1000G</t>
   </si>
   <si>
-    <t>S030001</t>
-  </si>
-  <si>
     <t>CAFE - 250G - 250G</t>
   </si>
   <si>
-    <t>S030005</t>
-  </si>
-  <si>
     <t>COPO DESCARTAVEL C/100 UND - 50ML - 50ML</t>
   </si>
   <si>
@@ -323,9 +317,6 @@
     <t>ADOÇANTE - 100ML</t>
   </si>
   <si>
-    <t>S030004</t>
-  </si>
-  <si>
     <t>ALMOFADA P/ CARIMBO N°03 - AZUL - AZUL</t>
   </si>
   <si>
@@ -564,6 +555,15 @@
   </si>
   <si>
     <t>AGULHA IM - CALIBRE 0,6X25MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300001 </t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1022,7 @@
         <v>83</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>84</v>
@@ -1036,10 +1036,10 @@
         <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="D2" s="2">
         <v>54</v>
@@ -1047,13 +1047,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="D3" s="5">
         <v>118</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>77</v>
@@ -1075,10 +1075,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>77</v>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>76</v>
@@ -1117,13 +1117,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1131,13 +1131,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D9" s="2">
         <v>1208</v>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -1162,7 +1162,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1176,7 +1176,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -1190,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1204,7 +1204,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -1215,16 +1215,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="D15" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -1257,13 +1257,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D18" s="5">
         <v>1184</v>
@@ -1274,7 +1274,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -1288,7 +1288,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
@@ -1313,24 +1313,24 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
@@ -1344,7 +1344,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>19</v>
@@ -1358,7 +1358,7 @@
         <v>78</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>79</v>
@@ -1372,7 +1372,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>21</v>
@@ -1383,10 +1383,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>21</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D28" s="5">
         <v>874</v>
@@ -1411,13 +1411,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D29" s="2">
         <v>1160</v>
@@ -1428,7 +1428,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>23</v>
@@ -1439,13 +1439,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D31" s="2">
         <v>1175</v>
@@ -1453,13 +1453,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D32" s="2">
         <v>1176</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" s="2">
         <v>1177</v>
@@ -1481,13 +1481,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D34" s="2">
         <v>1178</v>
@@ -1495,10 +1495,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>24</v>
@@ -1509,13 +1509,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D36" s="5">
         <v>1454</v>
@@ -1523,10 +1523,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>25</v>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>26</v>
@@ -1554,7 +1554,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>28</v>
@@ -1568,7 +1568,7 @@
         <v>29</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>28</v>
@@ -1582,7 +1582,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>28</v>
@@ -1596,7 +1596,7 @@
         <v>31</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>28</v>
@@ -1607,13 +1607,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D43" s="5">
         <v>1456</v>
@@ -1621,13 +1621,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D44" s="2">
         <v>750</v>
@@ -1635,13 +1635,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D45" s="2">
         <v>471</v>
@@ -1652,7 +1652,7 @@
         <v>32</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>33</v>
@@ -1666,7 +1666,7 @@
         <v>34</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
@@ -1677,13 +1677,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D48" s="5">
         <v>272</v>
@@ -1691,13 +1691,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D49" s="2">
         <v>1157</v>
@@ -1705,10 +1705,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>35</v>
@@ -1722,7 +1722,7 @@
         <v>36</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>37</v>
@@ -1733,10 +1733,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>38</v>
@@ -1747,13 +1747,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D53" s="2">
         <v>116</v>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>39</v>
@@ -1775,27 +1775,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D56" s="2">
         <v>1164</v>
@@ -1806,7 +1806,7 @@
         <v>40</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>41</v>
@@ -1817,10 +1817,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>42</v>
@@ -1834,7 +1834,7 @@
         <v>43</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>44</v>
@@ -1845,13 +1845,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D60" s="2">
         <v>33</v>
@@ -1859,13 +1859,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D61" s="2">
         <v>32</v>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D62" s="2">
         <v>31</v>
@@ -1890,7 +1890,7 @@
         <v>45</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>46</v>
@@ -1901,13 +1901,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D64" s="2">
         <v>1181</v>
@@ -1915,13 +1915,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D65" s="5">
         <v>874</v>
@@ -1932,7 +1932,7 @@
         <v>47</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>48</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D67" s="2">
         <v>1167</v>
@@ -1957,10 +1957,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>49</v>
@@ -1974,7 +1974,7 @@
         <v>50</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>49</v>
@@ -1985,10 +1985,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>51</v>
@@ -2002,7 +2002,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>53</v>
@@ -2016,7 +2016,7 @@
         <v>54</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>55</v>
@@ -2030,7 +2030,7 @@
         <v>56</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>57</v>
@@ -2044,7 +2044,7 @@
         <v>58</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>57</v>
@@ -2058,7 +2058,7 @@
         <v>61</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>60</v>
@@ -2072,7 +2072,7 @@
         <v>59</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>60</v>
@@ -2083,13 +2083,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D77" s="2">
         <v>1457</v>
@@ -2097,10 +2097,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>62</v>
@@ -2111,13 +2111,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D79" s="5">
         <v>1030</v>
@@ -2128,7 +2128,7 @@
         <v>63</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>64</v>
@@ -2139,10 +2139,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>81</v>
@@ -2156,7 +2156,7 @@
         <v>65</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>66</v>
@@ -2170,7 +2170,7 @@
         <v>67</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>66</v>
@@ -2184,7 +2184,7 @@
         <v>68</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>66</v>
@@ -2198,7 +2198,7 @@
         <v>69</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>70</v>
@@ -2212,7 +2212,7 @@
         <v>71</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>70</v>
@@ -2226,7 +2226,7 @@
         <v>72</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>70</v>
@@ -2240,7 +2240,7 @@
         <v>73</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>74</v>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D89" s="2">
         <v>202</v>
@@ -2265,13 +2265,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D90" s="2">
         <v>2</v>
@@ -2279,10 +2279,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>82</v>
@@ -2293,27 +2293,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D93" s="5">
         <v>1458</v>
